--- a/Shiny App/Data/DS courses UU.xlsx
+++ b/Shiny App/Data/DS courses UU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\Shiny App\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3411D-7422-43C5-A735-AE9DF016C9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFD8DE-7EEB-45F8-947B-A6EE16C96B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="5472" windowWidth="22536" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36" yWindow="7032" windowWidth="23160" windowHeight="5232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS_courses_UU" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,11 @@
   <authors>
     <author>tc={5BC020F7-EC21-4C5D-8551-77ED5F4616EC}</author>
     <author>tc={2A169EC0-6D8F-43FC-8595-4EABEFD68D2A}</author>
+    <author>tc={B78458FA-440F-46BB-A381-43F765B602DC}</author>
+    <author>tc={3938D858-A07F-489D-BB91-4362A1FC353B}</author>
   </authors>
   <commentList>
-    <comment ref="A154" authorId="0" shapeId="0" xr:uid="{5BC020F7-EC21-4C5D-8551-77ED5F4616EC}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{5BC020F7-EC21-4C5D-8551-77ED5F4616EC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +51,7 @@
     No discriptoion</t>
       </text>
     </comment>
-    <comment ref="A161" authorId="1" shapeId="0" xr:uid="{2A169EC0-6D8F-43FC-8595-4EABEFD68D2A}">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{2A169EC0-6D8F-43FC-8595-4EABEFD68D2A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,12 +59,28 @@
     no discription</t>
       </text>
     </comment>
+    <comment ref="A177" authorId="2" shapeId="0" xr:uid="{B78458FA-440F-46BB-A381-43F765B602DC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://elo.mastermath.nl</t>
+      </text>
+    </comment>
+    <comment ref="A178" authorId="3" shapeId="0" xr:uid="{3938D858-A07F-489D-BB91-4362A1FC353B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://elo.mastermath.nl</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1013">
   <si>
     <t>Course Name</t>
   </si>
@@ -2542,13 +2560,577 @@
   </si>
   <si>
     <t>Applied Data Science</t>
+  </si>
+  <si>
+    <t>Earth system modeling</t>
+  </si>
+  <si>
+    <t>NS-MO503M</t>
+  </si>
+  <si>
+    <t>dr. C.E. Wieners</t>
+  </si>
+  <si>
+    <t>dr. C.E. Wieners;dr. M.L.J. Baatsen</t>
+  </si>
+  <si>
+    <t>Evolutionary computing</t>
+  </si>
+  <si>
+    <t>INFOEA</t>
+  </si>
+  <si>
+    <t>Business Informatics (MBIM),Complex Systems Profile (PROFILE-CS-21)</t>
+  </si>
+  <si>
+    <t>Experimentation in psychology, linguistics, and AI</t>
+  </si>
+  <si>
+    <t>INFOMEPL</t>
+  </si>
+  <si>
+    <t>dr. J. Dotlacil</t>
+  </si>
+  <si>
+    <t>Applied Data Science Profile (PROFILE-ADS),Business Informatics (MBIM)</t>
+  </si>
+  <si>
+    <t>WISL716</t>
+  </si>
+  <si>
+    <t>Forensic Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Functional Analysis</t>
+  </si>
+  <si>
+    <t>WISL401</t>
+  </si>
+  <si>
+    <t>Functional programming</t>
+  </si>
+  <si>
+    <t>INFOFP</t>
+  </si>
+  <si>
+    <t>dr. F Staals;dr. M.I.L. Vákár</t>
+  </si>
+  <si>
+    <t>dr. F Staals;dr. M.I.L. Vákár;dr. F. Lucatelli Nunes; MSc. J.O.G. Krijnen; MSc. T.J. Smeding,</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (CKIB),Mathematics and Applications (WSKT),Minor Computer Science (INFOINCA),Minor Computer science (INFOHBO)</t>
+  </si>
+  <si>
+    <t>Human centered machine learning</t>
+  </si>
+  <si>
+    <t>INFOMHCML</t>
+  </si>
+  <si>
+    <t>dr. D.P. Nguyen</t>
+  </si>
+  <si>
+    <t>dr. D.P. Nguyen; dr. H. Kaya;MSc. G. Sogancioglu;MSc. Y. Du</t>
+  </si>
+  <si>
+    <t>Human network analysis</t>
+  </si>
+  <si>
+    <t>INFOMHNA</t>
+  </si>
+  <si>
+    <t>Image processing</t>
+  </si>
+  <si>
+    <t>INFOIBV</t>
+  </si>
+  <si>
+    <t>dr. I. Önal Ertugrul</t>
+  </si>
+  <si>
+    <t>dr. I. Önal Ertugrul; MSc. M. Doyran</t>
+  </si>
+  <si>
+    <t>Mathematics (WISK), Minor Computer Science (INFOINCA),Mathematics and Applications (WSKT)</t>
+  </si>
+  <si>
+    <t>dr. P. Yolum</t>
+  </si>
+  <si>
+    <t>Intelligent agents</t>
+  </si>
+  <si>
+    <t>INFOIAG</t>
+  </si>
+  <si>
+    <t>Intelligent systems</t>
+  </si>
+  <si>
+    <t>INFOB3IS</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (CKIB),Mathematics (WISK),Mathematics and Applications (WSKT),Minor Computer Science (INFOINCA)</t>
+  </si>
+  <si>
+    <t>Introduction to Biological Modeling</t>
+  </si>
+  <si>
+    <t>B-MBIOINBM</t>
+  </si>
+  <si>
+    <t>dr. ir. J.B.A. Maintz</t>
+  </si>
+  <si>
+    <t>Introduction to Complex Systems</t>
+  </si>
+  <si>
+    <t>BETA-B1CS</t>
+  </si>
+  <si>
+    <t>dr. D. Panja</t>
+  </si>
+  <si>
+    <t>Minor Complex Systems (MINOR-CS-WIS)</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>WISB365</t>
+  </si>
+  <si>
+    <t>dr. S Dirksen</t>
+  </si>
+  <si>
+    <t>Mathematics (WISK);Minor Mathematics (WISMIN);Physics and Astronomy (NAST)</t>
+  </si>
+  <si>
+    <t>Introduction to Python for Life Sciences</t>
+  </si>
+  <si>
+    <t>B-MBIOINPY</t>
+  </si>
+  <si>
+    <t>L.B. Snoek</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>B-MBIOINR</t>
+  </si>
+  <si>
+    <t>Introduction to R for Life Sciences</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Bio-informatics Profile (PROFILE-BIOINF);Bioinformatics Profile - e`xtended as of 2021 (PROF-BINF45-21)</t>
+  </si>
+  <si>
+    <t>Introduction to adaptive systems</t>
+  </si>
+  <si>
+    <t>INFOB2IAS</t>
+  </si>
+  <si>
+    <t>dr. N.A. Alechina</t>
+  </si>
+  <si>
+    <t>dr. N.A. Alechina;dr. B.S. Logan</t>
+  </si>
+  <si>
+    <t>INFOMLSAI</t>
+  </si>
+  <si>
+    <t>Logics for safe Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>WISL712</t>
+  </si>
+  <si>
+    <t>Machine Learning Theory</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>INFOB3ML</t>
+  </si>
+  <si>
+    <t>dr. M. van Ommen;dr. H. Kaya;MSc. F. Nunes Ferreira Quialheiro Simoes</t>
+  </si>
+  <si>
+    <t>Minor Computer Science (INFOINCA)</t>
+  </si>
+  <si>
+    <t>INFOMLHVL</t>
+  </si>
+  <si>
+    <t>dr. B.M. Harvey;dr. L. Abzianidze;dr. L. Abzianidze</t>
+  </si>
+  <si>
+    <t>Machine learning for human vision and language</t>
+  </si>
+  <si>
+    <t>NS-MO502M</t>
+  </si>
+  <si>
+    <t>dr. G.J.M. Velders</t>
+  </si>
+  <si>
+    <t>dr. G.J.M. Velders;dr. M.E. Popa</t>
+  </si>
+  <si>
+    <t>Math and Statistics for Information and Computing Sciences</t>
+  </si>
+  <si>
+    <t>INFOB3MSIC</t>
+  </si>
+  <si>
+    <t>MSc. S. de Berg</t>
+  </si>
+  <si>
+    <t>Mathematical statistics</t>
+  </si>
+  <si>
+    <t>WISB263</t>
+  </si>
+  <si>
+    <t>nl,en</t>
+  </si>
+  <si>
+    <t>dr. C. Spitoni</t>
+  </si>
+  <si>
+    <t>Mathematics (WISK),Minor Mathematical sciences (WISMINNATKST-21),Minor Mathematics (WISMIN),Physics and Astronomy (NAST)</t>
+  </si>
+  <si>
+    <t>WISB161 Probability theory, WISB114 Analysis</t>
+  </si>
+  <si>
+    <t>Meaningful Visualization</t>
+  </si>
+  <si>
+    <t>INFOMVIS</t>
+  </si>
+  <si>
+    <t>dr. M. Behrisch;dr. E. Dimara</t>
+  </si>
+  <si>
+    <t>Methods and Models in Complex Systems</t>
+  </si>
+  <si>
+    <t>BETA-B2CSA</t>
+  </si>
+  <si>
+    <t>dr. I.V. Kryven</t>
+  </si>
+  <si>
+    <t>Methods in AI research</t>
+  </si>
+  <si>
+    <t>INFOMAIR</t>
+  </si>
+  <si>
+    <t>dr. D. Doder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr. D. Doder;dr. D. Doder;MSc. C. Zhu; dr. M.P. Schraagen;N. Motamed;MSc. Y. Song </t>
+  </si>
+  <si>
+    <t>Modelling and simulation</t>
+  </si>
+  <si>
+    <t>NS-TP432M</t>
+  </si>
+  <si>
+    <t>prof. dr. ir. M. Dijkstra</t>
+  </si>
+  <si>
+    <t>prof. dr. ir. M. Dijkstra; dr. L.C. Filion</t>
+  </si>
+  <si>
+    <t>Complex Systems Profile (PROFILE-CS-21), Nanomaterials science (CHPH)</t>
+  </si>
+  <si>
+    <t>Multi-agent systems </t>
+  </si>
+  <si>
+    <t>INFOMAS</t>
+  </si>
+  <si>
+    <t>dr. M.M. Dastani</t>
+  </si>
+  <si>
+    <t>dr. M.M. Dastani; dr. T. Baarslag</t>
+  </si>
+  <si>
+    <t>Natural language processing</t>
+  </si>
+  <si>
+    <t>INFOMNLP</t>
+  </si>
+  <si>
+    <t>dr. R.W.F. Nouwen</t>
+  </si>
+  <si>
+    <t>dr. R.W.F. Nouwen;dr. T. Deoskar</t>
+  </si>
+  <si>
+    <t>Applied Data Science Profile (PROFILE-ADS),Business Informatics (MBIM),Science-based Entrepreneurship Profile (PROFILE-SBE)</t>
+  </si>
+  <si>
+    <t>Nonparametric Statistics</t>
+  </si>
+  <si>
+    <t>WISL717</t>
+  </si>
+  <si>
+    <t>Numerical Bifurcation Analysis of Large-Scale Systems</t>
+  </si>
+  <si>
+    <t>WISL425</t>
+  </si>
+  <si>
+    <t>Numerical analysis</t>
+  </si>
+  <si>
+    <t>WISB251</t>
+  </si>
+  <si>
+    <t>prof. dr. ir. J.E. Frank</t>
+  </si>
+  <si>
+    <t>WISB107 and WISB108 Calculus and linear algebra 1 and 2</t>
+  </si>
+  <si>
+    <t>Pattern recognition</t>
+  </si>
+  <si>
+    <t>INFOMPR</t>
+  </si>
+  <si>
+    <t>dr. A.J. Feelders;dr. A. Gatt</t>
+  </si>
+  <si>
+    <t>Applied Data Science Profile (PROFILE-ADS),Business Informatics (MBIM),Complex Systems Profile (PROFILE-CS-21)</t>
+  </si>
+  <si>
+    <t>dr. O.H. Klungel</t>
+  </si>
+  <si>
+    <t>Pharmacoepidemioloy</t>
+  </si>
+  <si>
+    <t>FA-MA210</t>
+  </si>
+  <si>
+    <t>Master Pharmacy (FARM)</t>
+  </si>
+  <si>
+    <t>Probabilistic reasoning</t>
+  </si>
+  <si>
+    <t>INFOPROB</t>
+  </si>
+  <si>
+    <t>dr. S. Renooij</t>
+  </si>
+  <si>
+    <t>dr. S. Renooij;dr. M.I.L. Vákár</t>
+  </si>
+  <si>
+    <t>Process mining</t>
+  </si>
+  <si>
+    <t>INFOMPROM</t>
+  </si>
+  <si>
+    <t>Programming with Python</t>
+  </si>
+  <si>
+    <t>BETA-B1PYT</t>
+  </si>
+  <si>
+    <t>dr. P.J. Mosteiro Romero;I. Alpizar</t>
+  </si>
+  <si>
+    <t>Applied Data Science (SW-MS-MI3),Minor Information Science (INFOINKU)</t>
+  </si>
+  <si>
+    <t>Python and R </t>
+  </si>
+  <si>
+    <t>WISB153</t>
+  </si>
+  <si>
+    <t>WISB107 Calculus and linear algebra 1</t>
+  </si>
+  <si>
+    <t>dr. C.E. Groenland</t>
+  </si>
+  <si>
+    <t>Quantitative Biology</t>
+  </si>
+  <si>
+    <t>B-B1KWBI20</t>
+  </si>
+  <si>
+    <t>Liberal Arts and Sciences (LASB),Minor Biologie (BIOL-MINOR)</t>
+  </si>
+  <si>
+    <t>dr. R. Hermsen;dr. C. Kesmir;MSc. C.A. Eekhuis;J.B. van Vulpen;dr. K.H.W.J. ten Tusscher</t>
+  </si>
+  <si>
+    <t>Quantum Information Theory</t>
+  </si>
+  <si>
+    <t>WISL119</t>
+  </si>
+  <si>
+    <t>Research Design and Analysis</t>
+  </si>
+  <si>
+    <t>B-B3RDA21</t>
+  </si>
+  <si>
+    <t>dr. M. Harterink</t>
+  </si>
+  <si>
+    <t>dr. M. Harterink;dr. A.E.D. Chaigne</t>
+  </si>
+  <si>
+    <t>Research Design and Analysis Ecology and Behaviour</t>
+  </si>
+  <si>
+    <t>B-B3RDAE22</t>
+  </si>
+  <si>
+    <t>J.A. Zwerts</t>
+  </si>
+  <si>
+    <t>Responsible data science</t>
+  </si>
+  <si>
+    <t>INFOB3RDS</t>
+  </si>
+  <si>
+    <t>dr. E. Dimara</t>
+  </si>
+  <si>
+    <t>dr. E. Dimara;dr. J. Gulden</t>
+  </si>
+  <si>
+    <t>Seminar Machine Learning</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>WISM485</t>
+  </si>
+  <si>
+    <t>Complex Systems Profile (PROFILE-CS),Complex Systems Profile for Life Sciences (PROFILE-CS-LS),Complex Systems Profile for Life Sciences as of 2021 (PROF-CS-LS-45N)</t>
+  </si>
+  <si>
+    <t>dr. M.J.C. Bootsma</t>
+  </si>
+  <si>
+    <t>WISM436</t>
+  </si>
+  <si>
+    <t>Seminar Mathematical Epidemiology</t>
+  </si>
+  <si>
+    <t>Statistical data analysis </t>
+  </si>
+  <si>
+    <t>NS-EX414M</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>dr. M. Verweij</t>
+  </si>
+  <si>
+    <t>Stochastic Processes</t>
+  </si>
+  <si>
+    <t>WISL703</t>
+  </si>
+  <si>
+    <t>Survival Analysis</t>
+  </si>
+  <si>
+    <t>WISL504</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>WISL704</t>
+  </si>
+  <si>
+    <t>Faculty of Geoscience</t>
+  </si>
+  <si>
+    <t>Dataprocessing and Inverse Theory</t>
+  </si>
+  <si>
+    <t>GEO4-1415</t>
+  </si>
+  <si>
+    <t>prof. dr. J.A. Trampert</t>
+  </si>
+  <si>
+    <t>Earth Structure and Dynamics</t>
+  </si>
+  <si>
+    <t>Module 5: Advanced Methods and Techniques for Geo-data Handling</t>
+  </si>
+  <si>
+    <t>GEO4-GIMA5</t>
+  </si>
+  <si>
+    <t>Geographical Information Management and Applications (GIMA)</t>
+  </si>
+  <si>
+    <t>Spatial data and geo-information</t>
+  </si>
+  <si>
+    <t>GEO1-7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PhD. E. van der Zee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PhD. E. van der Zee;BSc. B. Roozen</t>
+  </si>
+  <si>
+    <t>studenten SGPL vanaf cohort 2021/2022</t>
+  </si>
+  <si>
+    <t>Statistics and Data Analysis in Physical Geography</t>
+  </si>
+  <si>
+    <t>GEO4-4412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD. T. Giesecke </t>
+  </si>
+  <si>
+    <t>PhD. T. Giesecke;  MSc. S.L. Verhoeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2600,6 +3182,35 @@
       <name val="Roboto"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2627,7 +3238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2647,6 +3258,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2991,11 +3617,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A154" dT="2022-11-25T12:39:38.38" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{5BC020F7-EC21-4C5D-8551-77ED5F4616EC}">
+  <threadedComment ref="A6" dT="2022-11-25T12:39:38.38" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{5BC020F7-EC21-4C5D-8551-77ED5F4616EC}">
     <text>No discriptoion</text>
   </threadedComment>
-  <threadedComment ref="A161" dT="2022-11-25T13:40:54.25" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{2A169EC0-6D8F-43FC-8595-4EABEFD68D2A}">
+  <threadedComment ref="A12" dT="2022-11-25T13:40:54.25" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{2A169EC0-6D8F-43FC-8595-4EABEFD68D2A}">
     <text>no discription</text>
+  </threadedComment>
+  <threadedComment ref="A177" dT="2022-12-06T09:37:02.01" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{B78458FA-440F-46BB-A381-43F765B602DC}">
+    <text>https://elo.mastermath.nl</text>
+  </threadedComment>
+  <threadedComment ref="A178" dT="2022-12-06T09:37:42.01" personId="{D7E74F51-8567-46AC-B53A-7E8624C9F4F6}" id="{3938D858-A07F-489D-BB91-4362A1FC353B}">
+    <text>https://elo.mastermath.nl</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3003,12 +3635,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BJ184"/>
+  <dimension ref="A1:BJ239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="BA184" sqref="BA184"/>
+      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3267,13 +3899,13 @@
     </row>
     <row r="2" spans="1:62">
       <c r="A2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>678</v>
+      <c r="C2" t="s">
+        <v>683</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -3282,13 +3914,13 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>681</v>
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" t="s">
+        <v>685</v>
       </c>
       <c r="I2">
         <v>7.5</v>
@@ -3296,49 +3928,37 @@
       <c r="K2">
         <v>2022</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
       <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
+      <c r="R2">
         <v>1</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
       <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:62">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>222</v>
+      <c r="C3" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -3350,84 +3970,39 @@
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>701</v>
       </c>
       <c r="I3">
         <v>7.5</v>
       </c>
-      <c r="J3">
-        <v>2021</v>
-      </c>
       <c r="K3">
         <v>2022</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>223</v>
-      </c>
-      <c r="N3" t="s">
-        <v>583</v>
-      </c>
-      <c r="O3" t="s">
-        <v>583</v>
+      <c r="L3">
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>583</v>
+      <c r="BG3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:62">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>703</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
+      <c r="C4" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -3439,51 +4014,51 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>706</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>706</v>
       </c>
       <c r="I4">
         <v>7.5</v>
       </c>
-      <c r="J4">
-        <v>2016</v>
-      </c>
       <c r="K4">
-        <v>2021</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>583</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>583</v>
+        <v>2022</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="P4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" t="s">
-        <v>583</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>583</v>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:62">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>686</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="C5" s="4" t="s">
+        <v>687</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -3495,116 +4070,56 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>684</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>688</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2021</v>
+        <v>7.5</v>
       </c>
       <c r="K5">
         <v>2022</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>583</v>
-      </c>
-      <c r="O5" t="s">
-        <v>583</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>583</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>583</v>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:62">
-      <c r="A6" t="s">
-        <v>32</v>
+      <c r="A6" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6">
-        <v>1.5</v>
-      </c>
-      <c r="K6">
-        <v>2022</v>
-      </c>
-      <c r="L6" t="s">
-        <v>583</v>
-      </c>
-      <c r="M6" t="s">
-        <v>583</v>
-      </c>
-      <c r="N6" t="s">
-        <v>583</v>
-      </c>
-      <c r="O6" t="s">
-        <v>583</v>
-      </c>
-      <c r="P6" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>583</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:62">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>92</v>
+      <c r="C7" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -3616,10 +4131,10 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>709</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>710</v>
       </c>
       <c r="I7">
         <v>7.5</v>
@@ -3627,126 +4142,111 @@
       <c r="K7">
         <v>2022</v>
       </c>
-      <c r="L7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>583</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>583</v>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>583</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="T7">
+        <v>43</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>583</v>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:62">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>95</v>
+      <c r="C8" s="4" t="s">
+        <v>692</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>693</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>695</v>
       </c>
       <c r="I8">
-        <v>7.5</v>
-      </c>
-      <c r="J8">
-        <v>2015</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>2022</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="s">
-        <v>583</v>
+        <v>696</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>583</v>
+        <v>164</v>
       </c>
       <c r="P8" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>583</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
+        <v>43</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>583</v>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:62">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>714</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -3755,69 +4255,57 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>711</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>712</v>
       </c>
       <c r="I9">
         <v>7.5</v>
       </c>
-      <c r="J9">
-        <v>2015</v>
-      </c>
       <c r="K9">
         <v>2022</v>
       </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" t="s">
-        <v>583</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>583</v>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>583</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
+        <v>45</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
         <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>583</v>
+      <c r="BD9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:62">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>715</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
+      <c r="C10" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>96</v>
@@ -3826,69 +4314,54 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>717</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>718</v>
       </c>
       <c r="I10">
         <v>7.5</v>
       </c>
-      <c r="J10">
-        <v>2015</v>
-      </c>
       <c r="K10">
         <v>2022</v>
       </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>111</v>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>583</v>
-      </c>
-      <c r="P10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>583</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>583</v>
+        <v>134</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:62">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>115</v>
+      <c r="C11" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -3897,131 +4370,92 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
+        <v>679</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="I11">
         <v>7.5</v>
       </c>
-      <c r="J11">
-        <v>2020</v>
-      </c>
       <c r="K11">
         <v>2022</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" t="s">
-        <v>583</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" t="s">
-        <v>583</v>
       </c>
       <c r="P11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" t="s">
-        <v>583</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>583</v>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:62">
-      <c r="A12" t="s">
-        <v>118</v>
+      <c r="A12" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>720</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>721</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
-      </c>
-      <c r="J12">
-        <v>2015</v>
+        <v>8</v>
       </c>
       <c r="K12">
         <v>2022</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" t="s">
-        <v>583</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" t="s">
-        <v>583</v>
-      </c>
-      <c r="P12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:62">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>722</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>723</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -4033,171 +4467,126 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>724</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>725</v>
       </c>
       <c r="I13">
         <v>7.5</v>
       </c>
-      <c r="J13">
-        <v>2020</v>
-      </c>
       <c r="K13">
-        <v>2021</v>
-      </c>
-      <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>583</v>
-      </c>
-      <c r="N13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" t="s">
-        <v>583</v>
+        <v>2022</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>583</v>
+        <v>43</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:62">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>726</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>727</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>728</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>729</v>
       </c>
       <c r="I14">
         <v>7.5</v>
       </c>
-      <c r="J14">
-        <v>2015</v>
-      </c>
       <c r="K14">
         <v>2022</v>
       </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" t="s">
-        <v>583</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
-      <c r="O14" t="s">
-        <v>583</v>
+      <c r="L14">
+        <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>583</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>583</v>
+        <v>43</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:62">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
+        <v>731</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>583</v>
+        <v>732</v>
       </c>
       <c r="H15" t="s">
-        <v>583</v>
+        <v>733</v>
       </c>
       <c r="I15">
         <v>7.5</v>
       </c>
-      <c r="J15">
-        <v>2018</v>
-      </c>
       <c r="K15">
         <v>2022</v>
       </c>
-      <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>583</v>
+      <c r="L15">
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" t="s">
-        <v>583</v>
+        <v>734</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>583</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
+        <v>735</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
       <c r="AC15">
         <v>1</v>
       </c>
@@ -4207,29 +4596,29 @@
       <c r="AF15">
         <v>1</v>
       </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>583</v>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:62">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>736</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
@@ -4237,131 +4626,107 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" t="s">
-        <v>139</v>
+        <v>690</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
-      </c>
-      <c r="J16">
-        <v>2016</v>
+        <v>8</v>
       </c>
       <c r="K16">
         <v>2022</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" t="s">
-        <v>583</v>
-      </c>
-      <c r="O16" t="s">
-        <v>583</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>583</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>583</v>
+        <v>737</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:62">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>749</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I17">
-        <v>7.5</v>
-      </c>
-      <c r="J17">
-        <v>2015</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>2022</v>
       </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s">
-        <v>130</v>
+      <c r="L17">
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" t="s">
-        <v>583</v>
-      </c>
-      <c r="P17" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>583</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+        <v>751</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
       <c r="AQ17">
         <v>1</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>583</v>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:62">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -4373,22 +4738,25 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I18">
         <v>7.5</v>
       </c>
+      <c r="J18">
+        <v>2021</v>
+      </c>
       <c r="K18">
         <v>2022</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
-        <v>583</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s">
         <v>583</v>
@@ -4402,10 +4770,37 @@
       <c r="Q18" t="s">
         <v>583</v>
       </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
       <c r="AD18">
         <v>1</v>
       </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
       <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
         <v>1</v>
       </c>
       <c r="BJ18" t="s">
@@ -4414,147 +4809,114 @@
     </row>
     <row r="19" spans="1:62">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>752</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
+        <v>753</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>756</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>757</v>
       </c>
       <c r="I19">
-        <v>14</v>
-      </c>
-      <c r="J19">
-        <v>2020</v>
+        <v>7.5</v>
       </c>
       <c r="K19">
         <v>2022</v>
       </c>
-      <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" t="s">
-        <v>49</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>583</v>
-      </c>
-      <c r="O19" t="s">
-        <v>583</v>
-      </c>
-      <c r="P19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>583</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
+        <v>134</v>
+      </c>
+      <c r="T19">
         <v>1</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>583</v>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:62">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I20">
         <v>7.5</v>
       </c>
       <c r="J20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K20">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>130</v>
+        <v>583</v>
       </c>
       <c r="N20" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
         <v>583</v>
       </c>
       <c r="P20" t="s">
-        <v>583</v>
+        <v>43</v>
       </c>
       <c r="Q20" t="s">
         <v>583</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
       </c>
       <c r="BJ20" t="s">
         <v>583</v>
@@ -4562,84 +4924,72 @@
     </row>
     <row r="21" spans="1:62">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>761</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
+        <v>763</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>760</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>762</v>
       </c>
       <c r="I21">
         <v>7.5</v>
       </c>
-      <c r="J21">
-        <v>2018</v>
-      </c>
       <c r="K21">
         <v>2022</v>
       </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>583</v>
-      </c>
-      <c r="N21" t="s">
-        <v>152</v>
-      </c>
-      <c r="O21" t="s">
-        <v>583</v>
+      <c r="L21">
+        <v>4</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AT21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>583</v>
+        <v>758</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:62">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
+        <v>755</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
@@ -4648,66 +4998,57 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>760</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>760</v>
       </c>
       <c r="I22">
-        <v>7.5</v>
-      </c>
-      <c r="J22">
-        <v>2020</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <v>2022</v>
       </c>
-      <c r="L22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" t="s">
-        <v>583</v>
-      </c>
-      <c r="N22" t="s">
-        <v>49</v>
+      <c r="L22">
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>583</v>
+        <v>759</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>583</v>
-      </c>
-      <c r="X22">
+        <v>758</v>
+      </c>
+      <c r="T22">
         <v>1</v>
       </c>
       <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
       <c r="AN22">
         <v>1</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>583</v>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:62">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>764</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
+        <v>765</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -4716,34 +5057,43 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>767</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>768</v>
       </c>
       <c r="I23">
         <v>7.5</v>
       </c>
       <c r="K23">
-        <v>2021</v>
-      </c>
-      <c r="L23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" t="s">
-        <v>583</v>
+        <v>2022</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>583</v>
-      </c>
-      <c r="O23" t="s">
-        <v>583</v>
+        <v>766</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>583</v>
+        <v>769</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
       </c>
       <c r="AN23">
         <v>1</v>
@@ -4751,22 +5101,28 @@
       <c r="AP23">
         <v>1</v>
       </c>
-      <c r="AT23">
-        <v>1</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>159</v>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:62">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>770</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>771</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -4778,66 +5134,48 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>772</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>773</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>2016</v>
-      </c>
       <c r="K24">
         <v>2022</v>
       </c>
-      <c r="L24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M24" t="s">
-        <v>583</v>
+      <c r="L24">
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
-      </c>
-      <c r="O24" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="P24" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>583</v>
+        <v>775</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>583</v>
+      <c r="AD24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:62">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>776</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
+        <v>777</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
@@ -4846,66 +5184,60 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>778</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>779</v>
       </c>
       <c r="I25">
-        <v>7.5</v>
-      </c>
-      <c r="J25">
-        <v>2021</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>2022</v>
       </c>
-      <c r="L25" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" t="s">
-        <v>583</v>
+      <c r="L25">
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
-      </c>
-      <c r="O25" t="s">
-        <v>583</v>
+        <v>134</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>583</v>
+        <v>780</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
       <c r="Z25">
         <v>1</v>
       </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>583</v>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:62">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>781</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>782</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -4917,119 +5249,104 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>783</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>783</v>
       </c>
       <c r="I26">
-        <v>7.5</v>
-      </c>
-      <c r="J26">
-        <v>2015</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>2022</v>
       </c>
-      <c r="L26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M26" t="s">
-        <v>583</v>
+      <c r="L26">
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>117</v>
-      </c>
-      <c r="O26" t="s">
-        <v>583</v>
+        <v>784</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>583</v>
-      </c>
-      <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>583</v>
+        <v>45</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:62">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>785</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
+        <v>786</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>783</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>783</v>
       </c>
       <c r="I27">
         <v>7.5</v>
       </c>
-      <c r="J27">
-        <v>2020</v>
-      </c>
       <c r="K27">
         <v>2022</v>
       </c>
-      <c r="L27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" t="s">
-        <v>583</v>
+      <c r="L27">
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" t="s">
-        <v>583</v>
+        <v>787</v>
       </c>
       <c r="P27" t="s">
         <v>45</v>
       </c>
-      <c r="Q27" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>583</v>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:62">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
+      <c r="C28" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>44</v>
@@ -5038,46 +5355,49 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>790</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>791</v>
       </c>
       <c r="I28">
         <v>7.5</v>
       </c>
-      <c r="J28">
-        <v>2020</v>
-      </c>
       <c r="K28">
         <v>2022</v>
       </c>
-      <c r="L28" t="s">
-        <v>64</v>
+      <c r="L28">
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>583</v>
+        <v>766</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" t="s">
-        <v>583</v>
+        <v>792</v>
       </c>
       <c r="P28" t="s">
         <v>45</v>
       </c>
-      <c r="Q28" t="s">
-        <v>583</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="AS28">
-        <v>1</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>583</v>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="BD28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:62" hidden="1">
@@ -5839,13 +6159,13 @@
     </row>
     <row r="40" spans="1:62">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -5857,42 +6177,39 @@
         <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I40">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="K40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L40" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>583</v>
+        <v>49</v>
       </c>
       <c r="N40" t="s">
-        <v>49</v>
+        <v>583</v>
       </c>
       <c r="O40" t="s">
         <v>583</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q40" t="s">
         <v>583</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
+      <c r="R40">
         <v>1</v>
       </c>
       <c r="BJ40" t="s">
@@ -5901,13 +6218,13 @@
     </row>
     <row r="41" spans="1:62">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>793</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>66</v>
+      <c r="C41" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -5918,62 +6235,29 @@
       <c r="F41" t="s">
         <v>45</v>
       </c>
-      <c r="G41" t="s">
-        <v>67</v>
+      <c r="G41" s="8" t="s">
+        <v>795</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>796</v>
       </c>
       <c r="I41">
-        <v>7.5</v>
-      </c>
-      <c r="J41">
-        <v>2020</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>2022</v>
       </c>
       <c r="L41" t="s">
-        <v>60</v>
+        <v>797</v>
       </c>
       <c r="M41" t="s">
-        <v>583</v>
-      </c>
-      <c r="N41" t="s">
-        <v>49</v>
-      </c>
-      <c r="O41" t="s">
-        <v>583</v>
+        <v>798</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>583</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AH41">
-        <v>1</v>
-      </c>
-      <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AQ41">
-        <v>1</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>583</v>
+        <v>43</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:62" hidden="1">
@@ -6105,16 +6389,16 @@
     </row>
     <row r="44" spans="1:62">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -6123,48 +6407,42 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="I44">
-        <v>7.5</v>
-      </c>
-      <c r="J44">
-        <v>2020</v>
+        <v>1.5</v>
       </c>
       <c r="K44">
         <v>2022</v>
       </c>
       <c r="L44" t="s">
-        <v>64</v>
+        <v>583</v>
       </c>
       <c r="M44" t="s">
         <v>583</v>
       </c>
       <c r="N44" t="s">
-        <v>49</v>
+        <v>583</v>
       </c>
       <c r="O44" t="s">
         <v>583</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>583</v>
       </c>
       <c r="Q44" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AQ44">
+        <v>235</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AZ44">
         <v>1</v>
       </c>
       <c r="BJ44" t="s">
@@ -6540,13 +6818,13 @@
     </row>
     <row r="50" spans="1:62">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>803</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
-        <v>218</v>
+      <c r="C50" s="7" t="s">
+        <v>804</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -6558,67 +6836,55 @@
         <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>805</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>806</v>
       </c>
       <c r="I50">
         <v>7.5</v>
       </c>
-      <c r="J50">
-        <v>2021</v>
-      </c>
       <c r="K50">
         <v>2022</v>
       </c>
       <c r="L50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M50" t="s">
-        <v>220</v>
-      </c>
-      <c r="N50" t="s">
-        <v>583</v>
-      </c>
-      <c r="O50" t="s">
-        <v>583</v>
+        <v>158</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="P50" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" t="s">
-        <v>583</v>
-      </c>
       <c r="Y50">
         <v>1</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
-      <c r="AJ50">
-        <v>1</v>
-      </c>
-      <c r="AK50">
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AF50">
         <v>1</v>
       </c>
       <c r="AN50">
         <v>1</v>
       </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AT50">
-        <v>1</v>
-      </c>
-      <c r="AV50">
+      <c r="AQ50">
         <v>1</v>
       </c>
       <c r="AX50">
         <v>1</v>
-      </c>
-      <c r="BJ50" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:62" hidden="1">
@@ -14839,13 +15105,13 @@
     </row>
     <row r="151" spans="1:62">
       <c r="A151" t="s">
-        <v>61</v>
+        <v>799</v>
       </c>
       <c r="B151" t="s">
         <v>41</v>
       </c>
-      <c r="C151" t="s">
-        <v>62</v>
+      <c r="C151" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="D151" t="s">
         <v>43</v>
@@ -14857,75 +15123,69 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>63</v>
+        <v>801</v>
       </c>
       <c r="H151" t="s">
-        <v>738</v>
+        <v>802</v>
       </c>
       <c r="I151">
         <v>7.5</v>
       </c>
-      <c r="J151">
-        <v>2020</v>
-      </c>
       <c r="K151">
         <v>2022</v>
       </c>
       <c r="L151" t="s">
-        <v>64</v>
-      </c>
-      <c r="M151" t="s">
-        <v>583</v>
-      </c>
-      <c r="N151" t="s">
-        <v>49</v>
-      </c>
-      <c r="O151" t="s">
-        <v>583</v>
-      </c>
-      <c r="P151" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>583</v>
-      </c>
-      <c r="R151">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="Z151">
         <v>1</v>
       </c>
+      <c r="AF151">
+        <v>1</v>
+      </c>
+      <c r="AG151">
+        <v>1</v>
+      </c>
       <c r="AN151">
         <v>1</v>
       </c>
-      <c r="BJ151" t="s">
-        <v>583</v>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>1</v>
+      </c>
+      <c r="AR151">
+        <v>1</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:62">
       <c r="A152" t="s">
-        <v>682</v>
+        <v>810</v>
       </c>
       <c r="B152" t="s">
         <v>41</v>
       </c>
-      <c r="C152" t="s">
-        <v>683</v>
-      </c>
-      <c r="D152" t="s">
-        <v>43</v>
+      <c r="C152" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F152" t="s">
         <v>45</v>
       </c>
-      <c r="G152" t="s">
-        <v>684</v>
-      </c>
-      <c r="H152" t="s">
-        <v>685</v>
+      <c r="G152" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>808</v>
       </c>
       <c r="I152">
         <v>7.5</v>
@@ -14934,21 +15194,27 @@
         <v>2022</v>
       </c>
       <c r="L152">
-        <v>1</v>
-      </c>
-      <c r="N152" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="P152" t="s">
-        <v>43</v>
-      </c>
-      <c r="R152">
+        <v>45</v>
+      </c>
+      <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="Z152">
+        <v>1</v>
+      </c>
+      <c r="AB152">
+        <v>1</v>
+      </c>
+      <c r="AD152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>1</v>
       </c>
       <c r="AN152">
-        <v>1</v>
-      </c>
-      <c r="AP152">
         <v>1</v>
       </c>
       <c r="AQ152">
@@ -14957,13 +15223,13 @@
     </row>
     <row r="153" spans="1:62">
       <c r="A153" t="s">
-        <v>686</v>
+        <v>91</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>687</v>
+      <c r="C153" t="s">
+        <v>92</v>
       </c>
       <c r="D153" t="s">
         <v>43</v>
@@ -14975,10 +15241,10 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>684</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s">
-        <v>688</v>
+        <v>93</v>
       </c>
       <c r="I153">
         <v>7.5</v>
@@ -14986,107 +15252,182 @@
       <c r="K153">
         <v>2022</v>
       </c>
-      <c r="L153">
-        <v>4</v>
+      <c r="L153" t="s">
+        <v>60</v>
+      </c>
+      <c r="M153" t="s">
+        <v>583</v>
+      </c>
+      <c r="N153" t="s">
+        <v>49</v>
+      </c>
+      <c r="O153" t="s">
+        <v>583</v>
+      </c>
+      <c r="P153" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>583</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
       </c>
       <c r="T153">
         <v>1</v>
       </c>
-      <c r="AN153">
+      <c r="Z153">
         <v>1</v>
       </c>
       <c r="AQ153">
         <v>1</v>
       </c>
-      <c r="BD153">
-        <v>1</v>
+      <c r="BJ153" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:62">
-      <c r="A154" s="5" t="s">
-        <v>689</v>
+      <c r="A154" t="s">
+        <v>811</v>
       </c>
       <c r="B154" t="s">
         <v>41</v>
       </c>
+      <c r="C154" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" t="s">
+        <v>44</v>
+      </c>
       <c r="F154" t="s">
         <v>45</v>
       </c>
-      <c r="G154" t="s">
-        <v>690</v>
+      <c r="G154" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="H154" t="s">
+        <v>814</v>
+      </c>
+      <c r="I154">
+        <v>7.5</v>
+      </c>
+      <c r="K154">
+        <v>2022</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="N154" t="s">
+        <v>815</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="AD154">
+        <v>1</v>
+      </c>
+      <c r="AR154">
+        <v>1</v>
+      </c>
+      <c r="AX154">
+        <v>1</v>
+      </c>
+      <c r="AZ154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:62">
       <c r="A155" t="s">
-        <v>691</v>
+        <v>94</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>692</v>
+      <c r="C155" t="s">
+        <v>95</v>
       </c>
       <c r="D155" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F155" t="s">
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>693</v>
+        <v>97</v>
       </c>
       <c r="H155" t="s">
-        <v>695</v>
+        <v>98</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>7.5</v>
+      </c>
+      <c r="J155">
+        <v>2015</v>
       </c>
       <c r="K155">
         <v>2022</v>
       </c>
       <c r="L155" t="s">
-        <v>696</v>
+        <v>99</v>
+      </c>
+      <c r="M155" t="s">
+        <v>583</v>
       </c>
       <c r="N155" t="s">
-        <v>164</v>
+        <v>100</v>
+      </c>
+      <c r="O155" t="s">
+        <v>583</v>
       </c>
       <c r="P155" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD155">
+        <v>583</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>583</v>
+      </c>
+      <c r="U155">
+        <v>1</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
+        <v>1</v>
+      </c>
+      <c r="Y155">
+        <v>1</v>
+      </c>
+      <c r="Z155">
         <v>1</v>
       </c>
       <c r="AJ155">
         <v>1</v>
       </c>
-      <c r="AK155">
-        <v>1</v>
-      </c>
-      <c r="AP155">
-        <v>1</v>
-      </c>
-      <c r="AV155">
-        <v>1</v>
-      </c>
-      <c r="AX155">
-        <v>1</v>
+      <c r="BJ155" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:62">
       <c r="A156" t="s">
-        <v>698</v>
+        <v>101</v>
       </c>
       <c r="B156" t="s">
         <v>41</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>699</v>
+      <c r="C156" t="s">
+        <v>102</v>
       </c>
       <c r="D156" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E156" t="s">
         <v>44</v>
@@ -15095,95 +15436,140 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>700</v>
+        <v>103</v>
       </c>
       <c r="H156" t="s">
-        <v>701</v>
+        <v>104</v>
       </c>
       <c r="I156">
         <v>7.5</v>
       </c>
+      <c r="J156">
+        <v>2015</v>
+      </c>
       <c r="K156">
         <v>2022</v>
       </c>
-      <c r="L156">
-        <v>3</v>
+      <c r="L156" t="s">
+        <v>55</v>
+      </c>
+      <c r="M156" t="s">
+        <v>583</v>
+      </c>
+      <c r="N156" t="s">
+        <v>105</v>
+      </c>
+      <c r="O156" t="s">
+        <v>583</v>
       </c>
       <c r="P156" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD156">
-        <v>1</v>
-      </c>
-      <c r="BG156">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>583</v>
+      </c>
+      <c r="R156">
+        <v>1</v>
+      </c>
+      <c r="Z156">
+        <v>1</v>
+      </c>
+      <c r="AF156">
+        <v>1</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AT156">
+        <v>1</v>
+      </c>
+      <c r="BJ156" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="157" spans="1:62">
       <c r="A157" t="s">
-        <v>703</v>
+        <v>107</v>
       </c>
       <c r="B157" t="s">
         <v>41</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>704</v>
+      <c r="C157" t="s">
+        <v>108</v>
       </c>
       <c r="D157" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F157" t="s">
         <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>706</v>
+        <v>109</v>
       </c>
       <c r="H157" t="s">
-        <v>706</v>
+        <v>110</v>
       </c>
       <c r="I157">
         <v>7.5</v>
       </c>
+      <c r="J157">
+        <v>2015</v>
+      </c>
       <c r="K157">
         <v>2022</v>
       </c>
-      <c r="L157">
-        <v>2</v>
-      </c>
-      <c r="N157" s="6" t="s">
-        <v>705</v>
+      <c r="L157" t="s">
+        <v>60</v>
+      </c>
+      <c r="M157" t="s">
+        <v>111</v>
+      </c>
+      <c r="N157" t="s">
+        <v>112</v>
+      </c>
+      <c r="O157" t="s">
+        <v>583</v>
       </c>
       <c r="P157" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z157">
-        <v>1</v>
-      </c>
-      <c r="AD157">
-        <v>1</v>
-      </c>
-      <c r="AN157">
-        <v>1</v>
-      </c>
-      <c r="AV157">
-        <v>1</v>
-      </c>
-      <c r="BI157">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>583</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="T157">
+        <v>1</v>
+      </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="W157">
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <v>1</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="BJ157" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="158" spans="1:62">
       <c r="A158" t="s">
-        <v>707</v>
+        <v>114</v>
       </c>
       <c r="B158" t="s">
         <v>41</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>708</v>
+      <c r="C158" t="s">
+        <v>115</v>
       </c>
       <c r="D158" t="s">
         <v>43</v>
@@ -15195,60 +15581,60 @@
         <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>709</v>
+        <v>116</v>
       </c>
       <c r="H158" t="s">
-        <v>710</v>
+        <v>116</v>
       </c>
       <c r="I158">
         <v>7.5</v>
       </c>
+      <c r="J158">
+        <v>2020</v>
+      </c>
       <c r="K158">
         <v>2022</v>
       </c>
-      <c r="L158">
-        <v>2</v>
+      <c r="L158" t="s">
+        <v>99</v>
+      </c>
+      <c r="M158" t="s">
+        <v>583</v>
+      </c>
+      <c r="N158" t="s">
+        <v>117</v>
+      </c>
+      <c r="O158" t="s">
+        <v>583</v>
       </c>
       <c r="P158" t="s">
         <v>43</v>
       </c>
-      <c r="S158">
-        <v>1</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="Z158">
-        <v>1</v>
-      </c>
-      <c r="AC158">
-        <v>1</v>
-      </c>
-      <c r="AD158">
-        <v>1</v>
-      </c>
-      <c r="AF158">
-        <v>1</v>
-      </c>
-      <c r="AP158">
-        <v>1</v>
+      <c r="Q158" t="s">
+        <v>583</v>
       </c>
       <c r="AT158">
         <v>1</v>
       </c>
-      <c r="AX158">
-        <v>1</v>
+      <c r="AU158">
+        <v>1</v>
+      </c>
+      <c r="AV158">
+        <v>1</v>
+      </c>
+      <c r="BJ158" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="1:62">
       <c r="A159" t="s">
-        <v>713</v>
+        <v>118</v>
       </c>
       <c r="B159" t="s">
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>714</v>
+        <v>119</v>
       </c>
       <c r="D159" t="s">
         <v>43</v>
@@ -15260,189 +15646,267 @@
         <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>711</v>
+        <v>120</v>
       </c>
       <c r="H159" t="s">
-        <v>712</v>
+        <v>120</v>
       </c>
       <c r="I159">
         <v>7.5</v>
       </c>
+      <c r="J159">
+        <v>2015</v>
+      </c>
       <c r="K159">
         <v>2022</v>
       </c>
-      <c r="L159">
-        <v>2</v>
-      </c>
-      <c r="M159" s="6" t="s">
-        <v>168</v>
+      <c r="L159" t="s">
+        <v>55</v>
+      </c>
+      <c r="M159" t="s">
+        <v>583</v>
+      </c>
+      <c r="N159" t="s">
+        <v>121</v>
+      </c>
+      <c r="O159" t="s">
+        <v>583</v>
       </c>
       <c r="P159" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ159">
-        <v>1</v>
-      </c>
-      <c r="AK159">
-        <v>1</v>
-      </c>
-      <c r="AN159">
-        <v>1</v>
-      </c>
-      <c r="AP159">
-        <v>1</v>
-      </c>
-      <c r="AQ159">
-        <v>1</v>
-      </c>
-      <c r="BD159">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y159">
+        <v>1</v>
+      </c>
+      <c r="AA159">
+        <v>1</v>
+      </c>
+      <c r="AD159">
+        <v>1</v>
+      </c>
+      <c r="AT159">
+        <v>1</v>
+      </c>
+      <c r="BJ159" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="160" spans="1:62">
       <c r="A160" t="s">
-        <v>715</v>
+        <v>80</v>
       </c>
       <c r="B160" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D160">
-        <v>2</v>
+      <c r="C160" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" t="s">
+        <v>43</v>
       </c>
       <c r="E160" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>717</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s">
-        <v>718</v>
+        <v>83</v>
       </c>
       <c r="I160">
         <v>7.5</v>
       </c>
+      <c r="J160">
+        <v>2020</v>
+      </c>
       <c r="K160">
-        <v>2022</v>
-      </c>
-      <c r="L160">
-        <v>2</v>
+        <v>2021</v>
+      </c>
+      <c r="L160" t="s">
+        <v>60</v>
+      </c>
+      <c r="M160" t="s">
+        <v>583</v>
       </c>
       <c r="N160" t="s">
-        <v>134</v>
-      </c>
-      <c r="P160" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z160">
+        <v>49</v>
+      </c>
+      <c r="O160" t="s">
+        <v>583</v>
+      </c>
+      <c r="P160" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG160">
         <v>1</v>
       </c>
       <c r="AJ160">
         <v>1</v>
       </c>
-      <c r="AN160">
-        <v>1</v>
-      </c>
-      <c r="AP160">
-        <v>1</v>
-      </c>
-      <c r="AV160">
-        <v>1</v>
-      </c>
-      <c r="AX160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:56">
-      <c r="A161" s="5" t="s">
-        <v>719</v>
+      <c r="BJ160" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:62">
+      <c r="A161" t="s">
+        <v>122</v>
       </c>
       <c r="B161" t="s">
         <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>720</v>
+        <v>123</v>
       </c>
       <c r="D161" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E161" t="s">
-        <v>721</v>
+        <v>96</v>
       </c>
       <c r="F161" t="s">
         <v>45</v>
       </c>
       <c r="G161" t="s">
-        <v>690</v>
+        <v>124</v>
+      </c>
+      <c r="H161" t="s">
+        <v>125</v>
       </c>
       <c r="I161">
-        <v>8</v>
+        <v>7.5</v>
+      </c>
+      <c r="J161">
+        <v>2015</v>
       </c>
       <c r="K161">
         <v>2022</v>
       </c>
-    </row>
-    <row r="162" spans="1:56">
+      <c r="L161" t="s">
+        <v>55</v>
+      </c>
+      <c r="M161" t="s">
+        <v>583</v>
+      </c>
+      <c r="N161" t="s">
+        <v>126</v>
+      </c>
+      <c r="O161" t="s">
+        <v>583</v>
+      </c>
+      <c r="P161" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>583</v>
+      </c>
+      <c r="U161">
+        <v>1</v>
+      </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
+      <c r="AE161">
+        <v>1</v>
+      </c>
+      <c r="BJ161" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:62">
       <c r="A162" t="s">
-        <v>722</v>
+        <v>132</v>
       </c>
       <c r="B162" t="s">
         <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>723</v>
+        <v>133</v>
       </c>
       <c r="D162" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F162" t="s">
         <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>724</v>
+        <v>583</v>
       </c>
       <c r="H162" t="s">
-        <v>725</v>
+        <v>583</v>
       </c>
       <c r="I162">
         <v>7.5</v>
       </c>
+      <c r="J162">
+        <v>2018</v>
+      </c>
       <c r="K162">
         <v>2022</v>
       </c>
-      <c r="L162">
-        <v>3</v>
+      <c r="L162" t="s">
+        <v>64</v>
+      </c>
+      <c r="M162" t="s">
+        <v>583</v>
+      </c>
+      <c r="N162" t="s">
+        <v>134</v>
+      </c>
+      <c r="O162" t="s">
+        <v>583</v>
       </c>
       <c r="P162" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB162">
-        <v>1</v>
-      </c>
-      <c r="AN162">
-        <v>1</v>
-      </c>
-      <c r="AW162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:56">
+        <v>135</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>583</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AC162">
+        <v>1</v>
+      </c>
+      <c r="AD162">
+        <v>1</v>
+      </c>
+      <c r="AF162">
+        <v>1</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AV162">
+        <v>1</v>
+      </c>
+      <c r="BJ162" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:62">
       <c r="A163" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
         <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>727</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
         <v>43</v>
@@ -15454,111 +15918,135 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>728</v>
+        <v>138</v>
       </c>
       <c r="H163" t="s">
-        <v>729</v>
+        <v>139</v>
       </c>
       <c r="I163">
         <v>7.5</v>
       </c>
+      <c r="J163">
+        <v>2016</v>
+      </c>
       <c r="K163">
         <v>2022</v>
       </c>
-      <c r="L163">
-        <v>1</v>
+      <c r="L163" t="s">
+        <v>55</v>
+      </c>
+      <c r="M163" t="s">
+        <v>117</v>
+      </c>
+      <c r="N163" t="s">
+        <v>583</v>
+      </c>
+      <c r="O163" t="s">
+        <v>583</v>
       </c>
       <c r="P163" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD163">
-        <v>1</v>
-      </c>
-      <c r="AN163">
-        <v>1</v>
-      </c>
-      <c r="BD163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:56">
+        <v>583</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>583</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="AE163">
+        <v>1</v>
+      </c>
+      <c r="AF163">
+        <v>1</v>
+      </c>
+      <c r="AU163">
+        <v>1</v>
+      </c>
+      <c r="BJ163" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:62">
       <c r="A164" t="s">
-        <v>730</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
-      </c>
-      <c r="D164">
-        <v>3</v>
+        <v>141</v>
+      </c>
+      <c r="D164" t="s">
+        <v>60</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F164" t="s">
         <v>45</v>
       </c>
       <c r="G164" t="s">
-        <v>732</v>
+        <v>142</v>
       </c>
       <c r="H164" t="s">
-        <v>733</v>
+        <v>142</v>
       </c>
       <c r="I164">
         <v>7.5</v>
       </c>
+      <c r="J164">
+        <v>2015</v>
+      </c>
       <c r="K164">
         <v>2022</v>
       </c>
-      <c r="L164">
-        <v>2</v>
+      <c r="L164" t="s">
+        <v>99</v>
+      </c>
+      <c r="M164" t="s">
+        <v>130</v>
       </c>
       <c r="N164" t="s">
-        <v>734</v>
+        <v>143</v>
+      </c>
+      <c r="O164" t="s">
+        <v>583</v>
       </c>
       <c r="P164" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y164">
+        <v>583</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>583</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="W164">
         <v>1</v>
       </c>
       <c r="Z164">
         <v>1</v>
       </c>
-      <c r="AC164">
-        <v>1</v>
-      </c>
-      <c r="AD164">
-        <v>1</v>
-      </c>
-      <c r="AF164">
-        <v>1</v>
-      </c>
-      <c r="AG164">
-        <v>1</v>
-      </c>
-      <c r="AN164">
-        <v>1</v>
-      </c>
-      <c r="AP164">
-        <v>1</v>
-      </c>
-      <c r="AT164">
-        <v>1</v>
-      </c>
-      <c r="AX164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:56">
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="BJ164" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:62">
       <c r="A165" t="s">
-        <v>736</v>
+        <v>144</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
       </c>
+      <c r="C165" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" t="s">
+        <v>43</v>
+      </c>
       <c r="E165" t="s">
         <v>44</v>
       </c>
@@ -15566,28 +16054,46 @@
         <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>690</v>
+        <v>146</v>
+      </c>
+      <c r="H165" t="s">
+        <v>147</v>
       </c>
       <c r="I165">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K165">
         <v>2022</v>
       </c>
       <c r="L165" t="s">
-        <v>158</v>
+        <v>64</v>
+      </c>
+      <c r="M165" t="s">
+        <v>583</v>
+      </c>
+      <c r="N165" t="s">
+        <v>583</v>
+      </c>
+      <c r="O165" t="s">
+        <v>583</v>
       </c>
       <c r="P165" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM165">
-        <v>1</v>
-      </c>
-      <c r="AN165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:56" hidden="1">
+        <v>43</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD165">
+        <v>1</v>
+      </c>
+      <c r="AV165">
+        <v>1</v>
+      </c>
+      <c r="BJ165" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:62" hidden="1">
       <c r="A166" t="s">
         <v>739</v>
       </c>
@@ -15640,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:56" hidden="1">
+    <row r="167" spans="1:62" hidden="1">
       <c r="A167" t="s">
         <v>744</v>
       </c>
@@ -15711,15 +16217,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:56">
+    <row r="168" spans="1:62">
       <c r="A168" t="s">
-        <v>750</v>
+        <v>51</v>
       </c>
       <c r="B168" t="s">
         <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>749</v>
+        <v>52</v>
       </c>
       <c r="D168" t="s">
         <v>43</v>
@@ -15731,22 +16237,46 @@
         <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H168" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="J168">
+        <v>2020</v>
       </c>
       <c r="K168">
         <v>2022</v>
       </c>
-      <c r="L168">
-        <v>3</v>
+      <c r="L168" t="s">
+        <v>55</v>
+      </c>
+      <c r="M168" t="s">
+        <v>49</v>
       </c>
       <c r="N168" t="s">
-        <v>751</v>
+        <v>583</v>
+      </c>
+      <c r="O168" t="s">
+        <v>583</v>
+      </c>
+      <c r="P168" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>583</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
       </c>
       <c r="Y168">
         <v>1</v>
@@ -15754,13 +16284,10 @@
       <c r="Z168">
         <v>1</v>
       </c>
-      <c r="AB168">
-        <v>1</v>
-      </c>
       <c r="AC168">
         <v>1</v>
       </c>
-      <c r="AD168">
+      <c r="AE168">
         <v>1</v>
       </c>
       <c r="AF168">
@@ -15769,31 +16296,22 @@
       <c r="AG168">
         <v>1</v>
       </c>
-      <c r="AN168">
-        <v>1</v>
-      </c>
-      <c r="AQ168">
-        <v>1</v>
-      </c>
-      <c r="AT168">
-        <v>1</v>
-      </c>
-      <c r="AX168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:56">
+      <c r="BJ168" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:62">
       <c r="A169" t="s">
-        <v>752</v>
+        <v>128</v>
       </c>
       <c r="B169" t="s">
         <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>753</v>
-      </c>
-      <c r="D169">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="D169" t="s">
+        <v>60</v>
       </c>
       <c r="E169" t="s">
         <v>96</v>
@@ -15802,128 +16320,143 @@
         <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>756</v>
+        <v>97</v>
       </c>
       <c r="H169" t="s">
-        <v>757</v>
+        <v>97</v>
       </c>
       <c r="I169">
         <v>7.5</v>
       </c>
+      <c r="J169">
+        <v>2015</v>
+      </c>
       <c r="K169">
         <v>2022</v>
       </c>
-      <c r="L169">
-        <v>1</v>
+      <c r="L169" t="s">
+        <v>64</v>
+      </c>
+      <c r="M169" t="s">
+        <v>130</v>
       </c>
       <c r="N169" t="s">
-        <v>134</v>
-      </c>
-      <c r="T169">
-        <v>1</v>
-      </c>
-      <c r="AG169">
-        <v>1</v>
-      </c>
-      <c r="AJ169">
-        <v>1</v>
-      </c>
-      <c r="AN169">
-        <v>1</v>
-      </c>
-      <c r="AP169">
-        <v>1</v>
-      </c>
-      <c r="AQ169">
-        <v>1</v>
-      </c>
-      <c r="AX169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:56">
+        <v>131</v>
+      </c>
+      <c r="O169" t="s">
+        <v>583</v>
+      </c>
+      <c r="P169" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>583</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="W169">
+        <v>1</v>
+      </c>
+      <c r="BJ169" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:62">
       <c r="A170" t="s">
-        <v>754</v>
+        <v>148</v>
       </c>
       <c r="B170" t="s">
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>755</v>
-      </c>
-      <c r="D170">
-        <v>3</v>
+        <v>149</v>
+      </c>
+      <c r="D170" t="s">
+        <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F170" t="s">
         <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>760</v>
+        <v>150</v>
       </c>
       <c r="H170" t="s">
-        <v>760</v>
+        <v>151</v>
       </c>
       <c r="I170">
-        <v>15</v>
+        <v>7.5</v>
+      </c>
+      <c r="J170">
+        <v>2018</v>
       </c>
       <c r="K170">
         <v>2022</v>
       </c>
-      <c r="L170">
-        <v>4</v>
+      <c r="L170" t="s">
+        <v>55</v>
+      </c>
+      <c r="M170" t="s">
+        <v>583</v>
+      </c>
+      <c r="N170" t="s">
+        <v>152</v>
       </c>
       <c r="O170" t="s">
-        <v>759</v>
+        <v>583</v>
       </c>
       <c r="P170" t="s">
-        <v>758</v>
-      </c>
-      <c r="T170">
-        <v>1</v>
-      </c>
-      <c r="AJ170">
-        <v>1</v>
-      </c>
-      <c r="AN170">
-        <v>1</v>
-      </c>
-      <c r="AQ170">
-        <v>1</v>
-      </c>
-      <c r="AX170">
-        <v>1</v>
-      </c>
-      <c r="BD170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:56">
+        <v>153</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AD170">
+        <v>1</v>
+      </c>
+      <c r="AT170">
+        <v>1</v>
+      </c>
+      <c r="AW170">
+        <v>1</v>
+      </c>
+      <c r="BJ170" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:62">
       <c r="A171" t="s">
-        <v>761</v>
-      </c>
-      <c r="B171" t="s">
+        <v>816</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C171" t="s">
-        <v>763</v>
+      <c r="C171" s="7" t="s">
+        <v>817</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>818</v>
       </c>
       <c r="F171" t="s">
         <v>45</v>
       </c>
-      <c r="G171" t="s">
-        <v>760</v>
-      </c>
-      <c r="H171" t="s">
-        <v>762</v>
+      <c r="G171" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>819</v>
       </c>
       <c r="I171">
         <v>7.5</v>
@@ -15934,40 +16467,31 @@
       <c r="L171">
         <v>4</v>
       </c>
-      <c r="P171" t="s">
-        <v>758</v>
-      </c>
-      <c r="T171">
-        <v>1</v>
-      </c>
-      <c r="AJ171">
-        <v>1</v>
+      <c r="N171" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="P171" s="7" t="s">
+        <v>821</v>
       </c>
       <c r="AN171">
         <v>1</v>
       </c>
-      <c r="AQ171">
-        <v>1</v>
-      </c>
       <c r="AX171">
         <v>1</v>
       </c>
-      <c r="BD171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:56">
+    </row>
+    <row r="172" spans="1:62">
       <c r="A172" t="s">
-        <v>764</v>
-      </c>
-      <c r="B172" t="s">
+        <v>822</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C172" t="s">
-        <v>765</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
+      <c r="C172" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D172" t="s">
+        <v>43</v>
       </c>
       <c r="E172" t="s">
         <v>44</v>
@@ -15975,11 +16499,11 @@
       <c r="F172" t="s">
         <v>45</v>
       </c>
-      <c r="G172" t="s">
-        <v>767</v>
-      </c>
-      <c r="H172" t="s">
-        <v>768</v>
+      <c r="G172" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="I172">
         <v>7.5</v>
@@ -15988,60 +16512,36 @@
         <v>2022</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N172" t="s">
-        <v>766</v>
+        <v>49</v>
       </c>
       <c r="P172" t="s">
-        <v>769</v>
-      </c>
-      <c r="W172">
-        <v>1</v>
-      </c>
-      <c r="Y172">
-        <v>1</v>
-      </c>
-      <c r="Z172">
-        <v>1</v>
-      </c>
-      <c r="AD172">
-        <v>1</v>
-      </c>
-      <c r="AF172">
-        <v>1</v>
-      </c>
-      <c r="AG172">
+        <v>824</v>
+      </c>
+      <c r="S172">
         <v>1</v>
       </c>
       <c r="AN172">
         <v>1</v>
       </c>
-      <c r="AP172">
-        <v>1</v>
-      </c>
-      <c r="AQ172">
-        <v>1</v>
-      </c>
-      <c r="AR172">
-        <v>1</v>
-      </c>
-      <c r="AV172">
+      <c r="AO172">
         <v>1</v>
       </c>
       <c r="AX172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:56">
+    <row r="173" spans="1:62">
       <c r="A173" t="s">
-        <v>770</v>
-      </c>
-      <c r="B173" t="s">
+        <v>825</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C173" t="s">
-        <v>771</v>
+      <c r="C173" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="D173" t="s">
         <v>43</v>
@@ -16052,49 +16552,64 @@
       <c r="F173" t="s">
         <v>45</v>
       </c>
-      <c r="G173" t="s">
-        <v>772</v>
-      </c>
-      <c r="H173" t="s">
-        <v>773</v>
+      <c r="G173" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>828</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K173">
         <v>2022</v>
       </c>
       <c r="L173">
-        <v>2</v>
-      </c>
-      <c r="N173" t="s">
-        <v>774</v>
+        <v>4</v>
+      </c>
+      <c r="O173">
+        <v>26</v>
       </c>
       <c r="P173" t="s">
-        <v>775</v>
-      </c>
-      <c r="T173">
-        <v>1</v>
-      </c>
-      <c r="U173">
+        <v>43</v>
+      </c>
+      <c r="Z173">
         <v>1</v>
       </c>
       <c r="AD173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:56">
+      <c r="AF173">
+        <v>1</v>
+      </c>
+      <c r="AP173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1</v>
+      </c>
+      <c r="AU173">
+        <v>1</v>
+      </c>
+      <c r="AX173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:62">
       <c r="A174" t="s">
-        <v>776</v>
+        <v>56</v>
       </c>
       <c r="B174" t="s">
         <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>777</v>
-      </c>
-      <c r="D174">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="D174" t="s">
+        <v>43</v>
       </c>
       <c r="E174" t="s">
         <v>44</v>
@@ -16103,60 +16618,63 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>778</v>
+        <v>58</v>
       </c>
       <c r="H174" t="s">
-        <v>779</v>
+        <v>59</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>7.5</v>
+      </c>
+      <c r="J174">
+        <v>2020</v>
       </c>
       <c r="K174">
         <v>2022</v>
       </c>
-      <c r="L174">
-        <v>4</v>
+      <c r="L174" t="s">
+        <v>60</v>
+      </c>
+      <c r="M174" t="s">
+        <v>583</v>
       </c>
       <c r="N174" t="s">
-        <v>134</v>
+        <v>49</v>
+      </c>
+      <c r="O174" t="s">
+        <v>583</v>
       </c>
       <c r="P174" t="s">
-        <v>780</v>
-      </c>
-      <c r="T174">
-        <v>1</v>
-      </c>
-      <c r="U174">
-        <v>1</v>
-      </c>
-      <c r="Z174">
-        <v>1</v>
-      </c>
-      <c r="AD174">
+        <v>45</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>583</v>
+      </c>
+      <c r="X174">
+        <v>1</v>
+      </c>
+      <c r="AJ174">
+        <v>1</v>
+      </c>
+      <c r="AL174">
         <v>1</v>
       </c>
       <c r="AN174">
         <v>1</v>
       </c>
-      <c r="AP174">
-        <v>1</v>
-      </c>
-      <c r="AQ174">
-        <v>1</v>
-      </c>
-      <c r="AX174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:56">
+      <c r="BJ174" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="175" spans="1:62">
       <c r="A175" t="s">
-        <v>781</v>
-      </c>
-      <c r="B175" t="s">
+        <v>829</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C175" t="s">
-        <v>782</v>
+      <c r="C175" s="7" t="s">
+        <v>830</v>
       </c>
       <c r="D175" t="s">
         <v>43</v>
@@ -16167,64 +16685,70 @@
       <c r="F175" t="s">
         <v>45</v>
       </c>
-      <c r="G175" t="s">
-        <v>783</v>
-      </c>
-      <c r="H175" t="s">
-        <v>783</v>
-      </c>
       <c r="I175">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="K175">
         <v>2022</v>
       </c>
       <c r="L175">
-        <v>2</v>
-      </c>
-      <c r="N175" t="s">
-        <v>784</v>
+        <v>3</v>
+      </c>
+      <c r="N175" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="P175" t="s">
-        <v>45</v>
-      </c>
-      <c r="T175">
+        <v>43</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="Z175">
         <v>1</v>
       </c>
       <c r="AD175">
         <v>1</v>
       </c>
-      <c r="AN175">
-        <v>1</v>
-      </c>
-      <c r="AQ175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:56">
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AU175">
+        <v>1</v>
+      </c>
+      <c r="AW175">
+        <v>1</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="BD175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:62">
       <c r="A176" t="s">
-        <v>785</v>
-      </c>
-      <c r="B176" t="s">
+        <v>832</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C176" t="s">
-        <v>786</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
+      <c r="C176" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D176" t="s">
+        <v>43</v>
       </c>
       <c r="E176" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
         <v>45</v>
       </c>
-      <c r="G176" t="s">
-        <v>783</v>
-      </c>
-      <c r="H176" t="s">
-        <v>783</v>
+      <c r="G176" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>834</v>
       </c>
       <c r="I176">
         <v>7.5</v>
@@ -16233,15 +16757,12 @@
         <v>2022</v>
       </c>
       <c r="L176">
-        <v>2</v>
-      </c>
-      <c r="N176" t="s">
-        <v>787</v>
-      </c>
-      <c r="P176" t="s">
-        <v>45</v>
-      </c>
-      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="N176" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="R176">
         <v>1</v>
       </c>
       <c r="AD176">
@@ -16250,22 +16771,28 @@
       <c r="AN176">
         <v>1</v>
       </c>
+      <c r="AP176">
+        <v>1</v>
+      </c>
       <c r="AQ176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:56">
+      <c r="AX176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:62">
       <c r="A177" t="s">
-        <v>788</v>
+        <v>837</v>
       </c>
       <c r="B177" t="s">
         <v>41</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="D177">
-        <v>2</v>
+      <c r="C177" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D177" t="s">
+        <v>43</v>
       </c>
       <c r="E177" t="s">
         <v>44</v>
@@ -16273,61 +16800,32 @@
       <c r="F177" t="s">
         <v>45</v>
       </c>
-      <c r="G177" t="s">
-        <v>790</v>
-      </c>
-      <c r="H177" t="s">
-        <v>791</v>
-      </c>
+      <c r="G177" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H177" s="11"/>
       <c r="I177">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K177">
         <v>2022</v>
       </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177" t="s">
-        <v>766</v>
-      </c>
-      <c r="N177" t="s">
-        <v>792</v>
-      </c>
-      <c r="P177" t="s">
+      <c r="L177" t="s">
+        <v>158</v>
+      </c>
+      <c r="P177" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T177">
-        <v>1</v>
-      </c>
-      <c r="AD177">
-        <v>1</v>
-      </c>
-      <c r="AG177">
-        <v>1</v>
-      </c>
-      <c r="AP177">
-        <v>1</v>
-      </c>
-      <c r="AQ177">
-        <v>1</v>
-      </c>
-      <c r="AX177">
-        <v>1</v>
-      </c>
-      <c r="BD177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:56">
+    </row>
+    <row r="178" spans="1:62">
       <c r="A178" t="s">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c r="B178" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>794</v>
+      <c r="C178" s="7" t="s">
+        <v>839</v>
       </c>
       <c r="D178" t="s">
         <v>43</v>
@@ -16338,43 +16836,34 @@
       <c r="F178" t="s">
         <v>45</v>
       </c>
-      <c r="G178" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="H178" t="s">
-        <v>796</v>
+      <c r="G178" s="11" t="s">
+        <v>690</v>
       </c>
       <c r="I178">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K178">
         <v>2022</v>
       </c>
       <c r="L178" t="s">
-        <v>797</v>
-      </c>
-      <c r="M178" t="s">
-        <v>798</v>
-      </c>
-      <c r="P178" t="s">
-        <v>43</v>
-      </c>
-      <c r="R178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:56">
+        <v>158</v>
+      </c>
+      <c r="P178" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:62">
       <c r="A179" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="B179" t="s">
         <v>41</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="D179" t="s">
-        <v>43</v>
+      <c r="C179" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
       </c>
       <c r="E179" t="s">
         <v>44</v>
@@ -16382,11 +16871,11 @@
       <c r="F179" t="s">
         <v>45</v>
       </c>
-      <c r="G179" t="s">
-        <v>801</v>
+      <c r="G179" s="11" t="s">
+        <v>842</v>
       </c>
       <c r="H179" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="I179">
         <v>7.5</v>
@@ -16394,43 +16883,43 @@
       <c r="K179">
         <v>2022</v>
       </c>
-      <c r="L179" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z179">
-        <v>1</v>
-      </c>
-      <c r="AF179">
-        <v>1</v>
-      </c>
-      <c r="AG179">
-        <v>1</v>
-      </c>
-      <c r="AN179">
-        <v>1</v>
-      </c>
-      <c r="AP179">
-        <v>1</v>
-      </c>
-      <c r="AQ179">
-        <v>1</v>
-      </c>
-      <c r="AR179">
-        <v>1</v>
-      </c>
-      <c r="AX179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:56">
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N179" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="P179" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R179">
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <v>1</v>
+      </c>
+      <c r="X179">
+        <v>1</v>
+      </c>
+      <c r="AD179">
+        <v>1</v>
+      </c>
+      <c r="BG179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:62">
       <c r="A180" t="s">
-        <v>803</v>
+        <v>154</v>
       </c>
       <c r="B180" t="s">
         <v>41</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>804</v>
+      <c r="C180" t="s">
+        <v>155</v>
       </c>
       <c r="D180" t="s">
         <v>43</v>
@@ -16442,81 +16931,72 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>805</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
-        <v>806</v>
+        <v>157</v>
       </c>
       <c r="I180">
         <v>7.5</v>
       </c>
       <c r="K180">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="L180" t="s">
         <v>158</v>
       </c>
-      <c r="M180" s="9" t="s">
-        <v>807</v>
+      <c r="M180" t="s">
+        <v>583</v>
+      </c>
+      <c r="N180" t="s">
+        <v>583</v>
+      </c>
+      <c r="O180" t="s">
+        <v>583</v>
       </c>
       <c r="P180" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y180">
-        <v>1</v>
-      </c>
-      <c r="Z180">
-        <v>1</v>
-      </c>
-      <c r="AA180">
-        <v>1</v>
-      </c>
-      <c r="AB180">
-        <v>1</v>
-      </c>
-      <c r="AC180">
-        <v>1</v>
-      </c>
-      <c r="AD180">
-        <v>1</v>
-      </c>
-      <c r="AF180">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>583</v>
       </c>
       <c r="AN180">
         <v>1</v>
       </c>
-      <c r="AQ180">
-        <v>1</v>
-      </c>
-      <c r="AX180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:56">
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AT180">
+        <v>1</v>
+      </c>
+      <c r="BJ180" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:62">
       <c r="A181" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="B181" t="s">
         <v>41</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="D181">
-        <v>2</v>
+      <c r="C181" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D181" t="s">
+        <v>43</v>
       </c>
       <c r="E181" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
         <v>45</v>
       </c>
-      <c r="G181" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>808</v>
+      <c r="G181" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>848</v>
       </c>
       <c r="I181">
         <v>7.5</v>
@@ -16525,10 +17005,16 @@
         <v>2022</v>
       </c>
       <c r="L181">
-        <v>2</v>
-      </c>
-      <c r="P181" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="N181" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="P181" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
       </c>
       <c r="Y181">
         <v>1</v>
@@ -16536,31 +17022,40 @@
       <c r="Z181">
         <v>1</v>
       </c>
-      <c r="AB181">
+      <c r="AC181">
         <v>1</v>
       </c>
       <c r="AD181">
         <v>1</v>
       </c>
-      <c r="AM181">
+      <c r="AF181">
+        <v>1</v>
+      </c>
+      <c r="AG181">
         <v>1</v>
       </c>
       <c r="AN181">
         <v>1</v>
       </c>
-      <c r="AQ181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:56">
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AT181">
+        <v>1</v>
+      </c>
+      <c r="AX181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:62">
       <c r="A182" t="s">
-        <v>811</v>
+        <v>849</v>
       </c>
       <c r="B182" t="s">
         <v>41</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>812</v>
+        <v>850</v>
       </c>
       <c r="D182" t="s">
         <v>43</v>
@@ -16571,11 +17066,11 @@
       <c r="F182" t="s">
         <v>45</v>
       </c>
-      <c r="G182" s="8" t="s">
-        <v>813</v>
+      <c r="G182" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="H182" t="s">
-        <v>814</v>
+        <v>74</v>
       </c>
       <c r="I182">
         <v>7.5</v>
@@ -16584,54 +17079,60 @@
         <v>2022</v>
       </c>
       <c r="L182">
-        <v>2</v>
-      </c>
-      <c r="N182" t="s">
-        <v>815</v>
+        <v>3</v>
+      </c>
+      <c r="N182" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P182" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="R182">
         <v>1</v>
       </c>
-      <c r="T182">
+      <c r="AA182">
+        <v>1</v>
+      </c>
+      <c r="AB182">
         <v>1</v>
       </c>
       <c r="AD182">
         <v>1</v>
       </c>
-      <c r="AR182">
+      <c r="AU182">
         <v>1</v>
       </c>
       <c r="AX182">
         <v>1</v>
       </c>
-      <c r="AZ182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:56">
+      <c r="BD182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:62">
       <c r="A183" t="s">
-        <v>816</v>
-      </c>
-      <c r="B183" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B183" t="s">
         <v>41</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
+        <v>852</v>
+      </c>
+      <c r="D183" t="s">
+        <v>43</v>
       </c>
       <c r="E183" t="s">
-        <v>818</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
         <v>45</v>
       </c>
-      <c r="G183" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>819</v>
+      <c r="G183" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>854</v>
       </c>
       <c r="I183">
         <v>7.5</v>
@@ -16640,30 +17141,36 @@
         <v>2022</v>
       </c>
       <c r="L183">
-        <v>4</v>
-      </c>
-      <c r="N183" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="P183" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="AN183">
-        <v>1</v>
-      </c>
-      <c r="AX183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:56">
+        <v>1</v>
+      </c>
+      <c r="N183" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z183">
+        <v>1</v>
+      </c>
+      <c r="AD183">
+        <v>1</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AT183">
+        <v>1</v>
+      </c>
+      <c r="BD183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:62">
       <c r="A184" t="s">
-        <v>822</v>
-      </c>
-      <c r="B184" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B184" t="s">
         <v>41</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>823</v>
+        <v>858</v>
       </c>
       <c r="D184" t="s">
         <v>43</v>
@@ -16674,11 +17181,11 @@
       <c r="F184" t="s">
         <v>45</v>
       </c>
-      <c r="G184" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>78</v>
+      <c r="G184" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>856</v>
       </c>
       <c r="I184">
         <v>7.5</v>
@@ -16687,24 +17194,2951 @@
         <v>2022</v>
       </c>
       <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="AD184">
+        <v>1</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AX184">
+        <v>1</v>
+      </c>
+      <c r="BD184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:62">
+      <c r="A185" t="s">
+        <v>859</v>
+      </c>
+      <c r="B185" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>96</v>
+      </c>
+      <c r="F185" t="s">
+        <v>45</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I185">
+        <v>7.5</v>
+      </c>
+      <c r="K185">
+        <v>2022</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185" t="s">
+        <v>358</v>
+      </c>
+      <c r="N185" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="AD185">
+        <v>1</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:62">
+      <c r="A186" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="B186" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="D186" t="s">
+        <v>43</v>
+      </c>
+      <c r="E186" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" t="s">
+        <v>45</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I186">
+        <v>7.5</v>
+      </c>
+      <c r="K186">
+        <v>2022</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AZ186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:62">
+      <c r="A187" t="s">
+        <v>862</v>
+      </c>
+      <c r="B187" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D187" t="s">
+        <v>43</v>
+      </c>
+      <c r="E187" t="s">
+        <v>44</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="I187">
+        <v>5</v>
+      </c>
+      <c r="K187">
+        <v>2022</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="AD187">
+        <v>1</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:62">
+      <c r="A188" t="s">
+        <v>865</v>
+      </c>
+      <c r="B188" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>44</v>
+      </c>
+      <c r="F188" t="s">
+        <v>45</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="I188">
+        <v>7.5</v>
+      </c>
+      <c r="K188">
+        <v>2022</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188" t="s">
+        <v>868</v>
+      </c>
+      <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="AB188">
+        <v>1</v>
+      </c>
+      <c r="AD188">
+        <v>1</v>
+      </c>
+      <c r="AF188">
+        <v>1</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AZ188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:62">
+      <c r="A189" t="s">
+        <v>869</v>
+      </c>
+      <c r="B189" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>44</v>
+      </c>
+      <c r="F189" t="s">
+        <v>45</v>
+      </c>
+      <c r="G189" t="s">
+        <v>871</v>
+      </c>
+      <c r="H189" t="s">
+        <v>871</v>
+      </c>
+      <c r="I189">
+        <v>7.5</v>
+      </c>
+      <c r="K189">
+        <v>2022</v>
+      </c>
+      <c r="L189">
         <v>2</v>
       </c>
-      <c r="N184" t="s">
+      <c r="N189" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:62">
+      <c r="A190" t="s">
+        <v>873</v>
+      </c>
+      <c r="B190" t="s">
+        <v>163</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D190" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190" t="s">
+        <v>44</v>
+      </c>
+      <c r="F190" t="s">
+        <v>45</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>2023</v>
+      </c>
+      <c r="L190" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD190">
+        <v>1</v>
+      </c>
+      <c r="AF190">
+        <v>1</v>
+      </c>
+      <c r="AP190">
+        <v>1</v>
+      </c>
+      <c r="AV190">
+        <v>1</v>
+      </c>
+      <c r="AX190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:62">
+      <c r="A191" t="s">
+        <v>878</v>
+      </c>
+      <c r="B191" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D191" t="s">
+        <v>43</v>
+      </c>
+      <c r="E191" t="s">
+        <v>44</v>
+      </c>
+      <c r="F191" t="s">
+        <v>45</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+      <c r="K191">
+        <v>2023</v>
+      </c>
+      <c r="L191" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD191">
+        <v>1</v>
+      </c>
+      <c r="AJ191">
+        <v>1</v>
+      </c>
+      <c r="AK191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:62">
+      <c r="A192" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" t="s">
+        <v>41</v>
+      </c>
+      <c r="C192" t="s">
+        <v>161</v>
+      </c>
+      <c r="D192" t="s">
+        <v>43</v>
+      </c>
+      <c r="E192" t="s">
+        <v>44</v>
+      </c>
+      <c r="F192" t="s">
+        <v>45</v>
+      </c>
+      <c r="G192" t="s">
+        <v>162</v>
+      </c>
+      <c r="H192" t="s">
+        <v>162</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <v>2016</v>
+      </c>
+      <c r="K192">
+        <v>2022</v>
+      </c>
+      <c r="L192" t="s">
+        <v>163</v>
+      </c>
+      <c r="M192" t="s">
+        <v>583</v>
+      </c>
+      <c r="N192" t="s">
+        <v>164</v>
+      </c>
+      <c r="O192" t="s">
+        <v>583</v>
+      </c>
+      <c r="P192" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>583</v>
+      </c>
+      <c r="U192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>1</v>
+      </c>
+      <c r="AE192">
+        <v>1</v>
+      </c>
+      <c r="AF192">
+        <v>1</v>
+      </c>
+      <c r="BJ192" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="193" spans="1:62">
+      <c r="A193" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B193" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D193" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" t="s">
+        <v>44</v>
+      </c>
+      <c r="F193" t="s">
+        <v>45</v>
+      </c>
+      <c r="G193" t="s">
+        <v>162</v>
+      </c>
+      <c r="H193" t="s">
+        <v>162</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="K193">
+        <v>2023</v>
+      </c>
+      <c r="L193" t="s">
+        <v>879</v>
+      </c>
+      <c r="N193" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="W193">
+        <v>1</v>
+      </c>
+      <c r="AD193">
+        <v>1</v>
+      </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>1</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:62">
+      <c r="A194" t="s">
+        <v>165</v>
+      </c>
+      <c r="B194" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" t="s">
+        <v>166</v>
+      </c>
+      <c r="D194" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194" t="s">
+        <v>44</v>
+      </c>
+      <c r="F194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G194" t="s">
+        <v>46</v>
+      </c>
+      <c r="H194" t="s">
+        <v>167</v>
+      </c>
+      <c r="I194">
+        <v>7.5</v>
+      </c>
+      <c r="J194">
+        <v>2021</v>
+      </c>
+      <c r="K194">
+        <v>2022</v>
+      </c>
+      <c r="L194" t="s">
+        <v>60</v>
+      </c>
+      <c r="M194" t="s">
+        <v>583</v>
+      </c>
+      <c r="N194" t="s">
+        <v>168</v>
+      </c>
+      <c r="O194" t="s">
+        <v>583</v>
+      </c>
+      <c r="P194" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>583</v>
+      </c>
+      <c r="U194">
+        <v>1</v>
+      </c>
+      <c r="W194">
+        <v>1</v>
+      </c>
+      <c r="Z194">
+        <v>1</v>
+      </c>
+      <c r="AE194">
+        <v>1</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="BJ194" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:62">
+      <c r="A195" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="B195" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D195" t="s">
+        <v>43</v>
+      </c>
+      <c r="E195" t="s">
+        <v>44</v>
+      </c>
+      <c r="F195" t="s">
+        <v>45</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="I195">
+        <v>7.5</v>
+      </c>
+      <c r="K195">
+        <v>2022</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="P195" t="s">
+        <v>43</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:62">
+      <c r="A196" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="B196" t="s">
+        <v>41</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>44</v>
+      </c>
+      <c r="F196" t="s">
+        <v>45</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="I196">
+        <v>7.5</v>
+      </c>
+      <c r="K196">
+        <v>2022</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N196" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y196">
+        <v>1</v>
+      </c>
+      <c r="AC196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
+        <v>1</v>
+      </c>
+      <c r="AN196">
+        <v>1</v>
+      </c>
+      <c r="BD196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:62">
+      <c r="A197" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B197" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D197" t="s">
+        <v>43</v>
+      </c>
+      <c r="E197" t="s">
+        <v>44</v>
+      </c>
+      <c r="F197" t="s">
+        <v>45</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H197" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="I197">
+        <v>7.5</v>
+      </c>
+      <c r="K197">
+        <v>2022</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="P197" t="s">
+        <v>43</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="AA197">
+        <v>1</v>
+      </c>
+      <c r="AB197">
+        <v>1</v>
+      </c>
+      <c r="AQ197">
+        <v>1</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+      <c r="BD197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:62">
+      <c r="A198" t="s">
+        <v>895</v>
+      </c>
+      <c r="B198" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D198" t="s">
+        <v>43</v>
+      </c>
+      <c r="E198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F198" t="s">
+        <v>45</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="H198" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="I198">
+        <v>7.5</v>
+      </c>
+      <c r="K198">
+        <v>2022</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="P198" t="s">
+        <v>43</v>
+      </c>
+      <c r="T198">
+        <v>1</v>
+      </c>
+      <c r="AF198">
+        <v>1</v>
+      </c>
+      <c r="AG198">
+        <v>1</v>
+      </c>
+      <c r="AN198">
+        <v>1</v>
+      </c>
+      <c r="AP198">
+        <v>1</v>
+      </c>
+      <c r="AQ198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:62">
+      <c r="A199" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="B199" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="D199" t="s">
+        <v>43</v>
+      </c>
+      <c r="E199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" t="s">
+        <v>45</v>
+      </c>
+      <c r="G199" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="H199" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I199">
+        <v>8</v>
+      </c>
+      <c r="K199">
+        <v>2022</v>
+      </c>
+      <c r="L199" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:62">
+      <c r="A200" t="s">
+        <v>899</v>
+      </c>
+      <c r="B200" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="D200" t="s">
+        <v>43</v>
+      </c>
+      <c r="E200" t="s">
+        <v>44</v>
+      </c>
+      <c r="F200" t="s">
+        <v>45</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="H200" t="s">
+        <v>901</v>
+      </c>
+      <c r="I200">
+        <v>7.5</v>
+      </c>
+      <c r="K200">
+        <v>2022</v>
+      </c>
+      <c r="L200" t="s">
+        <v>797</v>
+      </c>
+      <c r="P200" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:62" ht="15.6">
+      <c r="A201" t="s">
+        <v>902</v>
+      </c>
+      <c r="B201" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>904</v>
+      </c>
+      <c r="F201" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="H201" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="I201">
+        <v>7.5</v>
+      </c>
+      <c r="K201">
+        <v>2022</v>
+      </c>
+      <c r="L201">
+        <v>4</v>
+      </c>
+      <c r="N201" t="s">
+        <v>906</v>
+      </c>
+      <c r="P201" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="AM201">
+        <v>1</v>
+      </c>
+      <c r="AN201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:62" ht="15.6">
+      <c r="A202" t="s">
+        <v>908</v>
+      </c>
+      <c r="B202" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D202" t="s">
+        <v>43</v>
+      </c>
+      <c r="E202" t="s">
+        <v>44</v>
+      </c>
+      <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H202" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="I202">
+        <v>7.5</v>
+      </c>
+      <c r="K202">
+        <v>2022</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="N202" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV202">
+        <v>1</v>
+      </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:62" ht="15.6">
+      <c r="A203" t="s">
+        <v>911</v>
+      </c>
+      <c r="B203" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>44</v>
+      </c>
+      <c r="F203" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="H203" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="I203">
+        <v>7.5</v>
+      </c>
+      <c r="K203">
+        <v>2022</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AF203">
+        <v>1</v>
+      </c>
+      <c r="AN203">
+        <v>1</v>
+      </c>
+      <c r="AX203">
+        <v>1</v>
+      </c>
+      <c r="AZ203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:62" ht="15.6">
+      <c r="A204" t="s">
+        <v>914</v>
+      </c>
+      <c r="B204" t="s">
+        <v>41</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D204" t="s">
+        <v>43</v>
+      </c>
+      <c r="E204" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" t="s">
+        <v>45</v>
+      </c>
+      <c r="G204" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="H204" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="I204">
+        <v>7.5</v>
+      </c>
+      <c r="K204">
+        <v>2022</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="Y204">
+        <v>1</v>
+      </c>
+      <c r="AC204">
+        <v>1</v>
+      </c>
+      <c r="AD204">
+        <v>1</v>
+      </c>
+      <c r="AF204">
+        <v>1</v>
+      </c>
+      <c r="AN204">
+        <v>1</v>
+      </c>
+      <c r="BD204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:62" ht="15.6">
+      <c r="A205" t="s">
+        <v>918</v>
+      </c>
+      <c r="B205" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D205" t="s">
+        <v>43</v>
+      </c>
+      <c r="E205" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="H205" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="I205">
+        <v>7.5</v>
+      </c>
+      <c r="K205">
+        <v>2022</v>
+      </c>
+      <c r="L205" t="s">
+        <v>287</v>
+      </c>
+      <c r="N205" t="s">
+        <v>922</v>
+      </c>
+      <c r="AD205">
+        <v>1</v>
+      </c>
+      <c r="AN205">
+        <v>1</v>
+      </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
+      <c r="AX205">
+        <v>1</v>
+      </c>
+      <c r="AZ205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:62">
+      <c r="A206" t="s">
+        <v>585</v>
+      </c>
+      <c r="B206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" t="s">
+        <v>262</v>
+      </c>
+      <c r="D206" t="s">
+        <v>43</v>
+      </c>
+      <c r="E206" t="s">
+        <v>44</v>
+      </c>
+      <c r="F206" t="s">
+        <v>45</v>
+      </c>
+      <c r="G206" t="s">
+        <v>263</v>
+      </c>
+      <c r="H206" t="s">
+        <v>263</v>
+      </c>
+      <c r="I206">
+        <v>7.5</v>
+      </c>
+      <c r="J206">
+        <v>2015</v>
+      </c>
+      <c r="K206">
+        <v>2022</v>
+      </c>
+      <c r="L206" t="s">
+        <v>99</v>
+      </c>
+      <c r="M206" t="s">
+        <v>583</v>
+      </c>
+      <c r="N206" t="s">
+        <v>117</v>
+      </c>
+      <c r="O206" t="s">
+        <v>583</v>
+      </c>
+      <c r="P206" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>583</v>
+      </c>
+      <c r="BA206">
+        <v>1</v>
+      </c>
+      <c r="BJ206" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="207" spans="1:62">
+      <c r="A207" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B207" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D207" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207" t="s">
+        <v>44</v>
+      </c>
+      <c r="F207" t="s">
+        <v>45</v>
+      </c>
+      <c r="G207" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="H207" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="I207">
+        <v>7.5</v>
+      </c>
+      <c r="K207">
+        <v>2022</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="N207" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="R207">
+        <v>1</v>
+      </c>
+      <c r="AD207">
+        <v>1</v>
+      </c>
+      <c r="AX207">
+        <v>1</v>
+      </c>
+      <c r="AZ207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:62">
+      <c r="A208" t="s">
+        <v>927</v>
+      </c>
+      <c r="B208" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D208" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208" t="s">
+        <v>44</v>
+      </c>
+      <c r="F208" t="s">
+        <v>45</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="H208" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="I208">
+        <v>7.5</v>
+      </c>
+      <c r="K208">
+        <v>2022</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="N208" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="Y208">
+        <v>1</v>
+      </c>
+      <c r="AB208">
+        <v>1</v>
+      </c>
+      <c r="AC208">
+        <v>1</v>
+      </c>
+      <c r="AD208">
+        <v>1</v>
+      </c>
+      <c r="AN208">
+        <v>1</v>
+      </c>
+      <c r="AO208">
+        <v>1</v>
+      </c>
+      <c r="AQ208">
+        <v>1</v>
+      </c>
+      <c r="AX208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:62">
+      <c r="A209" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" t="s">
+        <v>72</v>
+      </c>
+      <c r="D209" t="s">
+        <v>43</v>
+      </c>
+      <c r="E209" t="s">
+        <v>44</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>7.5</v>
+      </c>
+      <c r="J209">
+        <v>2020</v>
+      </c>
+      <c r="K209">
+        <v>2022</v>
+      </c>
+      <c r="L209" t="s">
+        <v>75</v>
+      </c>
+      <c r="M209" t="s">
+        <v>583</v>
+      </c>
+      <c r="N209" t="s">
         <v>49</v>
       </c>
-      <c r="P184" t="s">
-        <v>824</v>
-      </c>
-      <c r="S184">
-        <v>1</v>
-      </c>
-      <c r="AN184">
-        <v>1</v>
-      </c>
-      <c r="AO184">
-        <v>1</v>
-      </c>
-      <c r="AX184">
+      <c r="O209" t="s">
+        <v>583</v>
+      </c>
+      <c r="P209" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA209">
+        <v>1</v>
+      </c>
+      <c r="AB209">
+        <v>1</v>
+      </c>
+      <c r="BJ209" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="210" spans="1:62">
+      <c r="A210" t="s">
+        <v>932</v>
+      </c>
+      <c r="B210" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D210" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210" t="s">
+        <v>44</v>
+      </c>
+      <c r="F210" t="s">
+        <v>45</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I210">
+        <v>6</v>
+      </c>
+      <c r="K210">
+        <v>2022</v>
+      </c>
+      <c r="L210" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="211" spans="1:62">
+      <c r="A211" t="s">
+        <v>936</v>
+      </c>
+      <c r="B211" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" t="s">
+        <v>937</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>96</v>
+      </c>
+      <c r="F211" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" t="s">
+        <v>938</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="I211">
+        <v>7.5</v>
+      </c>
+      <c r="K211">
+        <v>2022</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="N211" t="s">
+        <v>906</v>
+      </c>
+      <c r="P211" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD211">
+        <v>1</v>
+      </c>
+      <c r="AF211">
+        <v>1</v>
+      </c>
+      <c r="AN211">
+        <v>1</v>
+      </c>
+      <c r="AP211">
+        <v>1</v>
+      </c>
+      <c r="AV211">
+        <v>1</v>
+      </c>
+      <c r="AX211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:62">
+      <c r="A212" t="s">
+        <v>934</v>
+      </c>
+      <c r="B212" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D212" t="s">
+        <v>43</v>
+      </c>
+      <c r="E212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F212" t="s">
+        <v>45</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I212">
+        <v>8</v>
+      </c>
+      <c r="K212">
+        <v>2022</v>
+      </c>
+      <c r="L212" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:62">
+      <c r="A213" t="s">
+        <v>940</v>
+      </c>
+      <c r="B213" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D213" t="s">
+        <v>43</v>
+      </c>
+      <c r="E213" t="s">
+        <v>44</v>
+      </c>
+      <c r="F213" t="s">
+        <v>45</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="I213">
+        <v>7.5</v>
+      </c>
+      <c r="K213">
+        <v>2022</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="N213" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="P213" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y213">
+        <v>1</v>
+      </c>
+      <c r="Z213">
+        <v>1</v>
+      </c>
+      <c r="AA213">
+        <v>1</v>
+      </c>
+      <c r="AB213">
+        <v>1</v>
+      </c>
+      <c r="AC213">
+        <v>1</v>
+      </c>
+      <c r="AD213">
+        <v>1</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="BD213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:62" ht="15.6">
+      <c r="A214" t="s">
+        <v>84</v>
+      </c>
+      <c r="B214" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" t="s">
+        <v>85</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214" t="s">
+        <v>44</v>
+      </c>
+      <c r="F214" t="s">
+        <v>45</v>
+      </c>
+      <c r="G214" t="s">
+        <v>86</v>
+      </c>
+      <c r="H214" t="s">
+        <v>86</v>
+      </c>
+      <c r="I214">
+        <v>7.5</v>
+      </c>
+      <c r="J214">
+        <v>2020</v>
+      </c>
+      <c r="K214">
+        <v>2022</v>
+      </c>
+      <c r="L214" t="s">
+        <v>64</v>
+      </c>
+      <c r="M214" t="s">
+        <v>583</v>
+      </c>
+      <c r="N214" t="s">
+        <v>49</v>
+      </c>
+      <c r="O214" t="s">
+        <v>583</v>
+      </c>
+      <c r="P214" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>583</v>
+      </c>
+      <c r="R214">
+        <v>1</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="BJ214" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="215" spans="1:62" ht="28.8">
+      <c r="A215" t="s">
+        <v>945</v>
+      </c>
+      <c r="B215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D215" t="s">
+        <v>43</v>
+      </c>
+      <c r="E215" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G215" t="s">
+        <v>944</v>
+      </c>
+      <c r="I215">
+        <v>7.5</v>
+      </c>
+      <c r="K215">
+        <v>2022</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="N215" t="s">
+        <v>947</v>
+      </c>
+      <c r="R215">
+        <v>1</v>
+      </c>
+      <c r="AL215">
+        <v>1</v>
+      </c>
+      <c r="AN215">
+        <v>1</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AX215">
+        <v>1</v>
+      </c>
+      <c r="AY215">
+        <v>1</v>
+      </c>
+      <c r="BD215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:62">
+      <c r="A216" t="s">
+        <v>948</v>
+      </c>
+      <c r="B216" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="D216" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216" t="s">
+        <v>44</v>
+      </c>
+      <c r="F216" t="s">
+        <v>45</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="H216" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="I216">
+        <v>7.5</v>
+      </c>
+      <c r="K216">
+        <v>2022</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="AB216">
+        <v>1</v>
+      </c>
+      <c r="AD216">
+        <v>1</v>
+      </c>
+      <c r="AF216">
+        <v>1</v>
+      </c>
+      <c r="AJ216">
+        <v>1</v>
+      </c>
+      <c r="AM216">
+        <v>1</v>
+      </c>
+      <c r="AN216">
+        <v>1</v>
+      </c>
+      <c r="AV216">
+        <v>1</v>
+      </c>
+      <c r="AW216">
+        <v>1</v>
+      </c>
+      <c r="AX216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:62">
+      <c r="A217" t="s">
+        <v>952</v>
+      </c>
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D217" t="s">
+        <v>43</v>
+      </c>
+      <c r="E217" t="s">
+        <v>44</v>
+      </c>
+      <c r="F217" t="s">
+        <v>45</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="I217">
+        <v>7.5</v>
+      </c>
+      <c r="K217">
+        <v>2022</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="N217" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y217">
+        <v>1</v>
+      </c>
+      <c r="Z217">
+        <v>1</v>
+      </c>
+      <c r="AD217">
+        <v>1</v>
+      </c>
+      <c r="AN217">
+        <v>1</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AT217">
+        <v>1</v>
+      </c>
+      <c r="AW217">
+        <v>1</v>
+      </c>
+      <c r="AX217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:62">
+      <c r="A218" t="s">
+        <v>954</v>
+      </c>
+      <c r="B218" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>44</v>
+      </c>
+      <c r="F218" t="s">
+        <v>45</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="I218">
+        <v>7.5</v>
+      </c>
+      <c r="K218">
+        <v>2022</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="N218" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD218">
+        <v>1</v>
+      </c>
+      <c r="AF218">
+        <v>1</v>
+      </c>
+      <c r="AX218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:62" ht="28.8">
+      <c r="A219" t="s">
+        <v>958</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>96</v>
+      </c>
+      <c r="F219" t="s">
+        <v>45</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="H219" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="I219">
+        <v>7.5</v>
+      </c>
+      <c r="K219">
+        <v>2022</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="P219" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="AD219">
+        <v>1</v>
+      </c>
+      <c r="AF219">
+        <v>1</v>
+      </c>
+      <c r="AJ219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:62">
+      <c r="A220" t="s">
+        <v>962</v>
+      </c>
+      <c r="B220" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>96</v>
+      </c>
+      <c r="F220" t="s">
+        <v>45</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="I220">
+        <v>7.5</v>
+      </c>
+      <c r="K220">
+        <v>2022</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="N220" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="AJ220">
+        <v>1</v>
+      </c>
+      <c r="AN220">
+        <v>1</v>
+      </c>
+      <c r="AP220">
+        <v>1</v>
+      </c>
+      <c r="AQ220">
+        <v>1</v>
+      </c>
+      <c r="AV220">
+        <v>1</v>
+      </c>
+      <c r="AX220">
+        <v>1</v>
+      </c>
+      <c r="BD220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:62" ht="15.6">
+      <c r="A221" t="s">
+        <v>966</v>
+      </c>
+      <c r="B221" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D221" t="s">
+        <v>43</v>
+      </c>
+      <c r="E221" t="s">
+        <v>44</v>
+      </c>
+      <c r="F221" t="s">
+        <v>45</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I221">
+        <v>8</v>
+      </c>
+      <c r="K221">
+        <v>2022</v>
+      </c>
+      <c r="L221" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="222" spans="1:62">
+      <c r="A222" t="s">
+        <v>968</v>
+      </c>
+      <c r="B222" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>96</v>
+      </c>
+      <c r="F222" t="s">
+        <v>45</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="H222" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="I222">
+        <v>7.5</v>
+      </c>
+      <c r="K222">
+        <v>2022</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="O222">
+        <v>48</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
+      <c r="AP222">
+        <v>1</v>
+      </c>
+      <c r="AQ222">
+        <v>1</v>
+      </c>
+      <c r="BD222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:62">
+      <c r="A223" t="s">
+        <v>972</v>
+      </c>
+      <c r="B223" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>44</v>
+      </c>
+      <c r="F223" t="s">
+        <v>45</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="I223">
+        <v>7.5</v>
+      </c>
+      <c r="K223">
+        <v>2022</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="AN223">
+        <v>1</v>
+      </c>
+      <c r="AP223">
+        <v>1</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="BD223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:62">
+      <c r="A224" t="s">
+        <v>975</v>
+      </c>
+      <c r="B224" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="E224" t="s">
+        <v>44</v>
+      </c>
+      <c r="F224" t="s">
+        <v>45</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="H224" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="I224">
+        <v>7.5</v>
+      </c>
+      <c r="K224">
+        <v>2022</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="N224" t="s">
+        <v>734</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:62">
+      <c r="A225" t="s">
+        <v>979</v>
+      </c>
+      <c r="B225" t="s">
+        <v>980</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D225" t="s">
+        <v>43</v>
+      </c>
+      <c r="E225" t="s">
+        <v>44</v>
+      </c>
+      <c r="F225" t="s">
+        <v>45</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="H225" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="I225">
+        <v>7.5</v>
+      </c>
+      <c r="K225">
+        <v>2022</v>
+      </c>
+      <c r="L225" t="s">
+        <v>287</v>
+      </c>
+      <c r="O225">
+        <v>12</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:62">
+      <c r="A226" t="s">
+        <v>985</v>
+      </c>
+      <c r="B226" t="s">
+        <v>980</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D226" t="s">
+        <v>43</v>
+      </c>
+      <c r="E226" t="s">
+        <v>44</v>
+      </c>
+      <c r="F226" t="s">
+        <v>45</v>
+      </c>
+      <c r="G226" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="H226" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="I226">
+        <v>7.5</v>
+      </c>
+      <c r="K226">
+        <v>2022</v>
+      </c>
+      <c r="L226" t="s">
+        <v>158</v>
+      </c>
+      <c r="N226" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
+      <c r="BD226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:62">
+      <c r="A227" t="s">
+        <v>76</v>
+      </c>
+      <c r="B227" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" t="s">
+        <v>77</v>
+      </c>
+      <c r="D227" t="s">
+        <v>43</v>
+      </c>
+      <c r="E227" t="s">
+        <v>44</v>
+      </c>
+      <c r="F227" t="s">
+        <v>45</v>
+      </c>
+      <c r="G227" t="s">
+        <v>78</v>
+      </c>
+      <c r="H227" t="s">
+        <v>79</v>
+      </c>
+      <c r="I227">
+        <v>7.5</v>
+      </c>
+      <c r="J227">
+        <v>2020</v>
+      </c>
+      <c r="K227">
+        <v>2021</v>
+      </c>
+      <c r="L227" t="s">
+        <v>60</v>
+      </c>
+      <c r="M227" t="s">
+        <v>583</v>
+      </c>
+      <c r="N227" t="s">
+        <v>49</v>
+      </c>
+      <c r="O227" t="s">
+        <v>583</v>
+      </c>
+      <c r="P227" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>583</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="AN227">
+        <v>1</v>
+      </c>
+      <c r="BJ227" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="228" spans="1:62">
+      <c r="A228" t="s">
+        <v>65</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>66</v>
+      </c>
+      <c r="D228" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228" t="s">
+        <v>44</v>
+      </c>
+      <c r="F228" t="s">
+        <v>45</v>
+      </c>
+      <c r="G228" t="s">
+        <v>67</v>
+      </c>
+      <c r="H228" t="s">
+        <v>67</v>
+      </c>
+      <c r="I228">
+        <v>7.5</v>
+      </c>
+      <c r="J228">
+        <v>2020</v>
+      </c>
+      <c r="K228">
+        <v>2022</v>
+      </c>
+      <c r="L228" t="s">
+        <v>60</v>
+      </c>
+      <c r="M228" t="s">
+        <v>583</v>
+      </c>
+      <c r="N228" t="s">
+        <v>49</v>
+      </c>
+      <c r="O228" t="s">
+        <v>583</v>
+      </c>
+      <c r="P228" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AN228">
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <v>1</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>1</v>
+      </c>
+      <c r="BJ228" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="229" spans="1:62">
+      <c r="A229" t="s">
+        <v>68</v>
+      </c>
+      <c r="B229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229" t="s">
+        <v>43</v>
+      </c>
+      <c r="E229" t="s">
+        <v>44</v>
+      </c>
+      <c r="F229" t="s">
+        <v>45</v>
+      </c>
+      <c r="G229" t="s">
+        <v>70</v>
+      </c>
+      <c r="H229" t="s">
+        <v>70</v>
+      </c>
+      <c r="I229">
+        <v>7.5</v>
+      </c>
+      <c r="J229">
+        <v>2020</v>
+      </c>
+      <c r="K229">
+        <v>2022</v>
+      </c>
+      <c r="L229" t="s">
+        <v>64</v>
+      </c>
+      <c r="M229" t="s">
+        <v>583</v>
+      </c>
+      <c r="N229" t="s">
+        <v>49</v>
+      </c>
+      <c r="O229" t="s">
+        <v>583</v>
+      </c>
+      <c r="P229" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AN229">
+        <v>1</v>
+      </c>
+      <c r="AQ229">
+        <v>1</v>
+      </c>
+      <c r="BJ229" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="230" spans="1:62">
+      <c r="A230" t="s">
+        <v>986</v>
+      </c>
+      <c r="B230" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="D230" t="s">
+        <v>43</v>
+      </c>
+      <c r="E230" t="s">
+        <v>44</v>
+      </c>
+      <c r="F230" t="s">
+        <v>45</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="H230" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="I230">
+        <v>6</v>
+      </c>
+      <c r="K230">
+        <v>2022</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="AN230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:62">
+      <c r="A231" t="s">
+        <v>217</v>
+      </c>
+      <c r="B231" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" t="s">
+        <v>218</v>
+      </c>
+      <c r="D231" t="s">
+        <v>43</v>
+      </c>
+      <c r="E231" t="s">
+        <v>44</v>
+      </c>
+      <c r="F231" t="s">
+        <v>45</v>
+      </c>
+      <c r="G231" t="s">
+        <v>219</v>
+      </c>
+      <c r="H231" t="s">
+        <v>219</v>
+      </c>
+      <c r="I231">
+        <v>7.5</v>
+      </c>
+      <c r="J231">
+        <v>2021</v>
+      </c>
+      <c r="K231">
+        <v>2022</v>
+      </c>
+      <c r="L231" t="s">
+        <v>55</v>
+      </c>
+      <c r="M231" t="s">
+        <v>220</v>
+      </c>
+      <c r="N231" t="s">
+        <v>583</v>
+      </c>
+      <c r="O231" t="s">
+        <v>583</v>
+      </c>
+      <c r="P231" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AN231">
+        <v>1</v>
+      </c>
+      <c r="AP231">
+        <v>1</v>
+      </c>
+      <c r="AT231">
+        <v>1</v>
+      </c>
+      <c r="AV231">
+        <v>1</v>
+      </c>
+      <c r="AX231">
+        <v>1</v>
+      </c>
+      <c r="BJ231" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="232" spans="1:62">
+      <c r="A232" t="s">
+        <v>61</v>
+      </c>
+      <c r="B232" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" t="s">
+        <v>62</v>
+      </c>
+      <c r="D232" t="s">
+        <v>43</v>
+      </c>
+      <c r="E232" t="s">
+        <v>44</v>
+      </c>
+      <c r="F232" t="s">
+        <v>45</v>
+      </c>
+      <c r="G232" t="s">
+        <v>63</v>
+      </c>
+      <c r="H232" t="s">
+        <v>738</v>
+      </c>
+      <c r="I232">
+        <v>7.5</v>
+      </c>
+      <c r="J232">
+        <v>2020</v>
+      </c>
+      <c r="K232">
+        <v>2022</v>
+      </c>
+      <c r="L232" t="s">
+        <v>64</v>
+      </c>
+      <c r="M232" t="s">
+        <v>583</v>
+      </c>
+      <c r="N232" t="s">
+        <v>49</v>
+      </c>
+      <c r="O232" t="s">
+        <v>583</v>
+      </c>
+      <c r="P232" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>583</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AN232">
+        <v>1</v>
+      </c>
+      <c r="BJ232" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" spans="1:62">
+      <c r="A233" t="s">
+        <v>990</v>
+      </c>
+      <c r="B233" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="D233" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233" t="s">
+        <v>44</v>
+      </c>
+      <c r="F233" t="s">
+        <v>45</v>
+      </c>
+      <c r="G233" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I233">
+        <v>8</v>
+      </c>
+      <c r="K233">
+        <v>2022</v>
+      </c>
+      <c r="L233" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:62">
+      <c r="A234" t="s">
+        <v>992</v>
+      </c>
+      <c r="B234" t="s">
+        <v>41</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D234" t="s">
+        <v>43</v>
+      </c>
+      <c r="E234" t="s">
+        <v>44</v>
+      </c>
+      <c r="F234" t="s">
+        <v>45</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I234">
+        <v>8</v>
+      </c>
+      <c r="K234">
+        <v>2022</v>
+      </c>
+      <c r="L234" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL234">
+        <v>1</v>
+      </c>
+      <c r="AN234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:62">
+      <c r="A235" t="s">
+        <v>994</v>
+      </c>
+      <c r="B235" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D235" t="s">
+        <v>43</v>
+      </c>
+      <c r="E235" t="s">
+        <v>44</v>
+      </c>
+      <c r="F235" t="s">
+        <v>45</v>
+      </c>
+      <c r="G235" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I235">
+        <v>8</v>
+      </c>
+      <c r="K235">
+        <v>2022</v>
+      </c>
+      <c r="L235" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN235">
+        <v>1</v>
+      </c>
+      <c r="AO235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:62" ht="15.6">
+      <c r="A236" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B236" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="D236" t="s">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>44</v>
+      </c>
+      <c r="F236" t="s">
+        <v>996</v>
+      </c>
+      <c r="G236" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="I236">
+        <v>7.5</v>
+      </c>
+      <c r="K236">
+        <v>2022</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="P236" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R236">
+        <v>1</v>
+      </c>
+      <c r="Z236">
+        <v>1</v>
+      </c>
+      <c r="AF236">
+        <v>1</v>
+      </c>
+      <c r="AG236">
+        <v>1</v>
+      </c>
+      <c r="AP236">
+        <v>1</v>
+      </c>
+      <c r="AQ236">
+        <v>1</v>
+      </c>
+      <c r="AX236">
+        <v>1</v>
+      </c>
+      <c r="BD236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:62" ht="20.399999999999999">
+      <c r="A237" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B237" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D237" t="s">
+        <v>43</v>
+      </c>
+      <c r="E237" t="s">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>996</v>
+      </c>
+      <c r="I237">
+        <v>10</v>
+      </c>
+      <c r="K237">
+        <v>2022</v>
+      </c>
+      <c r="L237" t="s">
+        <v>988</v>
+      </c>
+      <c r="P237" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R237">
+        <v>1</v>
+      </c>
+      <c r="U237">
+        <v>1</v>
+      </c>
+      <c r="Z237">
+        <v>1</v>
+      </c>
+      <c r="AD237">
+        <v>1</v>
+      </c>
+      <c r="AF237">
+        <v>1</v>
+      </c>
+      <c r="AN237">
+        <v>1</v>
+      </c>
+      <c r="AP237">
+        <v>1</v>
+      </c>
+      <c r="AQ237">
+        <v>1</v>
+      </c>
+      <c r="AX237">
+        <v>1</v>
+      </c>
+      <c r="BD237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:62">
+      <c r="A238" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B238" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>96</v>
+      </c>
+      <c r="F238" t="s">
+        <v>996</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I238">
+        <v>7.5</v>
+      </c>
+      <c r="K238">
+        <v>2022</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="P238" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R238">
+        <v>1</v>
+      </c>
+      <c r="U238">
+        <v>1</v>
+      </c>
+      <c r="Z238">
+        <v>1</v>
+      </c>
+      <c r="AP238">
+        <v>1</v>
+      </c>
+      <c r="AQ238">
+        <v>1</v>
+      </c>
+      <c r="AV238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:62">
+      <c r="A239" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B239" t="s">
+        <v>41</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D239" t="s">
+        <v>43</v>
+      </c>
+      <c r="E239" t="s">
+        <v>44</v>
+      </c>
+      <c r="F239" t="s">
+        <v>996</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I239">
+        <v>7.5</v>
+      </c>
+      <c r="K239">
+        <v>2022</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="P239" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ239">
+        <v>1</v>
+      </c>
+      <c r="AN239">
+        <v>1</v>
+      </c>
+      <c r="AP239">
+        <v>1</v>
+      </c>
+      <c r="AQ239">
+        <v>1</v>
+      </c>
+      <c r="AV239">
+        <v>1</v>
+      </c>
+      <c r="BD239">
         <v>1</v>
       </c>
     </row>
@@ -16715,8 +20149,8 @@
         <filter val="Faculty of Science"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BJ151">
-      <sortCondition ref="A1:A151"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BJ238">
+      <sortCondition ref="A1:A167"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
